--- a/60_used_aircrafts_dataset_added_new.xlsx
+++ b/60_used_aircrafts_dataset_added_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1684 +436,1728 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Aircraft_Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Total_Engines</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Engine_Model</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Max_Takeoff_Thrust</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fuselage_Height</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Fuselage_Width</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Aircraft_Length</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Wing_Span</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aircraft_Height</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wing_Area</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wing_Taper_Ratio</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>1/4_Wing_Sweep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Height_b_V_[m]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Taper_ratio_λ_V</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>1/4_Chord_Sweep_φ_25,V_[°]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Span_b_H</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Taper_Ratio_λ_H</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>1/4_Chord_Sweep_φ_25</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>V_MO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>M_MO</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Max_Usable_Fuel</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Max_Range_R_PLMR</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Max_Take_Off_m_MTO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Max_Landing_m_ML</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Max_Zero_Fuel</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Operating_Empty_m_OE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Max_Payload_m_MPL</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Payload_at_Max_Range_m_PLMR</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>A220-300</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>PW1521G</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>97.73</v>
-      </c>
       <c r="E2" t="n">
+        <v>97730</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.72</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3.51</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>38.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>35.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>11.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>112.3</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.26</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>26</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.35</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>35.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>12.26</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.375</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>30.5</v>
       </c>
-      <c r="S2" t="n">
-        <v>489</v>
-      </c>
       <c r="T2" t="n">
+        <v>905.628</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.82</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>21381</v>
       </c>
-      <c r="V2" t="n">
-        <v>3350</v>
-      </c>
       <c r="W2" t="n">
+        <v>5391302.4</v>
+      </c>
+      <c r="X2" t="n">
         <v>70900</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>58800</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>55800</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>43500</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>12300</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>6350</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>A319ceo</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CFM56-5A5</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>104.53</v>
-      </c>
       <c r="E3" t="n">
+        <v>104530</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.14</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>3.95</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>33.84</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>35.8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>11.76</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K3" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.25</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>23.5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>5.87</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.33</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>35</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.375</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>28</v>
       </c>
-      <c r="S3" t="n">
-        <v>488</v>
-      </c>
       <c r="T3" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.82</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>15609</v>
       </c>
-      <c r="V3" t="n">
-        <v>3950</v>
-      </c>
       <c r="W3" t="n">
+        <v>6356908.8</v>
+      </c>
+      <c r="X3" t="n">
         <v>75500</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>62500</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>58500</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>35400</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>23100</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>9800</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>A319neo</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>LEAP-1A26</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>120.64</v>
-      </c>
       <c r="E4" t="n">
+        <v>120640</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.95</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>33.84</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>35.8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11.76</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K4" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>23.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>5.87</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.33</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>35</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.375</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>28</v>
       </c>
-      <c r="S4" t="n">
-        <v>488</v>
-      </c>
       <c r="T4" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.82</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>15477</v>
       </c>
-      <c r="V4" t="n">
-        <v>4300</v>
-      </c>
       <c r="W4" t="n">
+        <v>6920179.2</v>
+      </c>
+      <c r="X4" t="n">
         <v>75500</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>63900</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>60300</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>39600</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>20700</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>A320ceo</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CFM56-5B4</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>120.1</v>
-      </c>
       <c r="E5" t="n">
+        <v>120100</v>
+      </c>
+      <c r="F5" t="n">
         <v>4.14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3.95</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>35.57</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>35.8</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>11.76</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K5" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>23.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>5.87</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.33</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>35</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.375</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>28</v>
       </c>
-      <c r="S5" t="n">
-        <v>488</v>
-      </c>
       <c r="T5" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.82</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>15609</v>
       </c>
-      <c r="V5" t="n">
-        <v>3300</v>
-      </c>
       <c r="W5" t="n">
+        <v>5310835.2</v>
+      </c>
+      <c r="X5" t="n">
         <v>78000</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>66000</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>62500</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>43500</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>19000</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>13000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>A320neo</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>LEAP-1A29</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>130.29</v>
-      </c>
       <c r="E6" t="n">
+        <v>130290</v>
+      </c>
+      <c r="F6" t="n">
         <v>4.14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3.95</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>35.57</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>35.8</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>11.76</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K6" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>23.5</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>5.87</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.33</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>35</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.375</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>23.5</v>
       </c>
-      <c r="S6" t="n">
-        <v>488</v>
-      </c>
       <c r="T6" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.82</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>15609</v>
       </c>
-      <c r="V6" t="n">
-        <v>4000</v>
-      </c>
       <c r="W6" t="n">
+        <v>6437376</v>
+      </c>
+      <c r="X6" t="n">
         <v>79000</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>67400</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>64300</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>45800</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>18500</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>A321ceo</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CFM56-5B1</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>133.44</v>
-      </c>
       <c r="E7" t="n">
+        <v>133440</v>
+      </c>
+      <c r="F7" t="n">
         <v>4.14</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3.95</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>44.51</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>35.8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>11.76</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K7" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.25</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>23.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>5.87</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.33</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>35</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.375</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>23.5</v>
       </c>
-      <c r="S7" t="n">
-        <v>488</v>
-      </c>
       <c r="T7" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.82</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>15500</v>
       </c>
-      <c r="V7" t="n">
-        <v>2900</v>
-      </c>
       <c r="W7" t="n">
+        <v>4667097.600000001</v>
+      </c>
+      <c r="X7" t="n">
         <v>93500</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>77800</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>73800</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>47500</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>26300</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>A321neo</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>LEAP-1A32</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>143.05</v>
-      </c>
       <c r="E8" t="n">
+        <v>143050</v>
+      </c>
+      <c r="F8" t="n">
         <v>4.14</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.95</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>44.51</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>35.8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>11.76</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K8" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>23.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>5.87</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.33</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>35</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>12.45</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.375</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>23.5</v>
       </c>
-      <c r="S8" t="n">
-        <v>488</v>
-      </c>
       <c r="T8" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.82</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>15380</v>
       </c>
-      <c r="V8" t="n">
-        <v>3500</v>
-      </c>
       <c r="W8" t="n">
+        <v>5632704</v>
+      </c>
+      <c r="X8" t="n">
         <v>97000</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>79200</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>75600</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>46600</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>29000</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>22000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>CF6-80E1A3</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>304.84</v>
-      </c>
       <c r="E9" t="n">
-        <v>5.64</v>
+        <v>304840</v>
       </c>
       <c r="F9" t="n">
         <v>5.64</v>
       </c>
       <c r="G9" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H9" t="n">
         <v>58.82</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>60.3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>17.39</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
-      </c>
       <c r="K9" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.235</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>28.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.36</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>39</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>19.4</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.4</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>29</v>
       </c>
-      <c r="S9" t="n">
-        <v>573</v>
-      </c>
       <c r="T9" t="n">
+        <v>1061.196</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.86</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>139090</v>
       </c>
-      <c r="V9" t="n">
-        <v>5300</v>
-      </c>
       <c r="W9" t="n">
+        <v>8529523.200000001</v>
+      </c>
+      <c r="X9" t="n">
         <v>242000</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>182000</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>170000</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>124000</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>46000</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>A330-300</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>CF6-80E1A3</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>304.84</v>
-      </c>
       <c r="E10" t="n">
-        <v>5.64</v>
+        <v>304840</v>
       </c>
       <c r="F10" t="n">
         <v>5.64</v>
       </c>
       <c r="G10" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H10" t="n">
         <v>63.66</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>60.3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>16.79</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>361.6</t>
-        </is>
-      </c>
       <c r="K10" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.235</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>28.5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.4</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>39</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>19.4</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.425</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>29.5</v>
       </c>
-      <c r="S10" t="n">
-        <v>573</v>
-      </c>
       <c r="T10" t="n">
+        <v>1061.196</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.86</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>139090</v>
       </c>
-      <c r="V10" t="n">
-        <v>4800</v>
-      </c>
       <c r="W10" t="n">
+        <v>7724851.2</v>
+      </c>
+      <c r="X10" t="n">
         <v>242000</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>187000</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>175000</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>129000</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>46000</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>A330-900</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>7000-72</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>323.98</v>
-      </c>
       <c r="E11" t="n">
-        <v>5.64</v>
+        <v>323980</v>
       </c>
       <c r="F11" t="n">
         <v>5.64</v>
       </c>
       <c r="G11" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H11" t="n">
         <v>63.66</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>64</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>16.79</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>361.6</t>
-        </is>
-      </c>
       <c r="K11" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.17</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>29</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.4</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>43.5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>19.4</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>29</v>
       </c>
-      <c r="S11" t="n">
-        <v>573</v>
-      </c>
       <c r="T11" t="n">
+        <v>1061.196</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.86</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>139090</v>
       </c>
-      <c r="V11" t="n">
-        <v>5500</v>
-      </c>
       <c r="W11" t="n">
+        <v>8851392</v>
+      </c>
+      <c r="X11" t="n">
         <v>251000</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>191000</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>181000</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>135000</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>46000</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>42000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>A350-900</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>XWB-84</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>374.5</v>
-      </c>
       <c r="E12" t="n">
+        <v>374500</v>
+      </c>
+      <c r="F12" t="n">
         <v>6.09</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>5.96</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>66.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>64.75</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>17.05</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>361.6</t>
-        </is>
-      </c>
       <c r="K12" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.16</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>32</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>9.42</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.39</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>40</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>18.79</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.395</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>33.5</v>
       </c>
-      <c r="S12" t="n">
-        <v>593</v>
-      </c>
       <c r="T12" t="n">
+        <v>1098.236</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.89</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>140795</v>
       </c>
-      <c r="V12" t="n">
-        <v>8600</v>
-      </c>
       <c r="W12" t="n">
+        <v>13840358.4</v>
+      </c>
+      <c r="X12" t="n">
         <v>280000</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>207000</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1957000</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>1903000</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>54000</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>A350-1000</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>XWB-97</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>431.5</v>
-      </c>
       <c r="E13" t="n">
+        <v>431500</v>
+      </c>
+      <c r="F13" t="n">
         <v>6.09</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>5.96</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>73.79000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>64.75</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>17.08</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
       <c r="K13" t="n">
+        <v>443</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.16</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>32</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>9.42</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.39</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>40</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>18.79</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.395</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>33.5</v>
       </c>
-      <c r="S13" t="n">
-        <v>593</v>
-      </c>
       <c r="T13" t="n">
+        <v>1098.236</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.89</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>158791</v>
       </c>
-      <c r="V13" t="n">
-        <v>8500</v>
-      </c>
       <c r="W13" t="n">
+        <v>13679424</v>
+      </c>
+      <c r="X13" t="n">
         <v>319000</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>236000</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>223000</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>156000</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>67000</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>33000</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>A380</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>970B-84</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>348.31</v>
-      </c>
       <c r="E14" t="n">
+        <v>348310</v>
+      </c>
+      <c r="F14" t="n">
         <v>8.41</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7.14</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>72.73</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>79.75</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>24.1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>845</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.225</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>33.5</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>14.59</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.39</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>40</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>30.37</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>0.38</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>33.5</v>
       </c>
-      <c r="S14" t="n">
-        <v>593</v>
-      </c>
       <c r="T14" t="n">
+        <v>1098.236</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.89</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>324339</v>
       </c>
-      <c r="V14" t="n">
-        <v>8800</v>
-      </c>
       <c r="W14" t="n">
+        <v>14162227.2</v>
+      </c>
+      <c r="X14" t="n">
         <v>575000</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>394000</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>369000</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>285000</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>84000</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>AN-24</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>AI-24</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
         <v>2.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>23.53</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>29.2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>8.32</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>74.98</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.34</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>4.5</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>4.93</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>0.445</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>20</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>9.08</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>0.405</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>17</v>
       </c>
-      <c r="S15" t="n">
-        <v>291</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>538.932</v>
+      </c>
       <c r="U15" t="n">
+        <v>0.4365</v>
+      </c>
+      <c r="V15" t="n">
         <v>4940</v>
       </c>
-      <c r="V15" t="n">
-        <v>1080</v>
-      </c>
       <c r="W15" t="n">
+        <v>1738091.52</v>
+      </c>
+      <c r="X15" t="n">
         <v>21800</v>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
-      </c>
       <c r="Y15" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Z15" t="n">
         <v>20300</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>14800</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>5500</v>
       </c>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>ATR 42</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>PW127M</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
         <v>2.63</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>2.87</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>22.67</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>24.57</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>7.59</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>54.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>4.53</v>
       </c>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
         <v>7.31</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>300</v>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
+        <v>555.6</v>
+      </c>
+      <c r="U16" t="n">
         <v>0.55</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>5700</v>
       </c>
-      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="X16" t="n">
         <v>18600</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>18300</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>17000</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>11550</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>5300</v>
       </c>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>ATR 72</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>PW127M/N</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>2.63</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2.87</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>27.17</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>27.05</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>7.65</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>61</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.465</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>3.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>4.43</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>0.65</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>29</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>7.31</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.525</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>5.5</v>
       </c>
-      <c r="S17" t="n">
-        <v>275</v>
-      </c>
       <c r="T17" t="n">
+        <v>509.3</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.55</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>6360</v>
       </c>
-      <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
+        <v>1528000</v>
+      </c>
+      <c r="X17" t="n">
         <v>23000</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>22350</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>21000</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>13010</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>7550</v>
       </c>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Jetstream 31/32</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>TPE 331-12UHR</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>1.98</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>1.98</v>
       </c>
       <c r="G18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H18" t="n">
         <v>14.36</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>15.85</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>5.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>25.08</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.33</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.7</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3.2</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.295</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>40</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>6.6</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.41</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>7.12</v>
       </c>
-      <c r="S18" t="n">
-        <v>250</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>463</v>
+      </c>
       <c r="U18" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="V18" t="n">
         <v>1846</v>
       </c>
-      <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="X18" t="n">
         <v>7350</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>7080</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>6736</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>5098</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>1638</v>
       </c>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>99</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>PT6A-36</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>13.58</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>13.98</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>4.38</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>25.98</v>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -2121,130 +2165,138 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>282</v>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
+        <v>522.264</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.45</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>1412</v>
       </c>
-      <c r="V19" t="n">
-        <v>911</v>
-      </c>
       <c r="W19" t="n">
-        <v>5126</v>
+        <v>1466112.384</v>
       </c>
       <c r="X19" t="n">
         <v>5126</v>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="Y19" t="n">
+        <v>5126</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>2946</v>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>1900C</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>PT6A-65B</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>17.62</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>17.64</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>4.72</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
         <v>0.37</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1.6</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
         <v>5.61</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.54</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>17.6</v>
       </c>
-      <c r="S20" t="n">
-        <v>297</v>
-      </c>
       <c r="T20" t="n">
+        <v>550.044</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.47</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>2525</v>
       </c>
-      <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
+        <v>2778000</v>
+      </c>
+      <c r="X20" t="n">
         <v>7983</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>7584</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>6804</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>4702</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>2102</v>
       </c>
-      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>1900D</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>PT6A-67D</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>17.62</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>17.64</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>4.72</v>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2253,3456 +2305,3524 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>301</v>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
+        <v>557.452</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.48</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>2517</v>
       </c>
-      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
+        <v>1279000</v>
+      </c>
+      <c r="X21" t="n">
         <v>7764</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>7603</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>7120</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>4932</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>2189</v>
       </c>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>717-200</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>BR700-715C1-30</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>95.33</v>
-      </c>
       <c r="E22" t="n">
+        <v>95330</v>
+      </c>
+      <c r="F22" t="n">
         <v>3.6</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3.34</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>37.81</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>28.45</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>92.97</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>24</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>4.75</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>0.74</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>43</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>11.2</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>0.37</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>31</v>
       </c>
-      <c r="S22" t="n">
-        <v>492</v>
-      </c>
       <c r="T22" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.82</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>14758</v>
       </c>
-      <c r="V22" t="n">
-        <v>2000</v>
-      </c>
       <c r="W22" t="n">
+        <v>3218688</v>
+      </c>
+      <c r="X22" t="n">
         <v>54884</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>49898</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>45586</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>31071</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>14515</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>10500</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>737-300</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>CFM56-3B-2</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>98.3</v>
-      </c>
       <c r="E23" t="n">
+        <v>98300</v>
+      </c>
+      <c r="F23" t="n">
         <v>4.01</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3.76</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>33.4</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>28.88</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>11.13</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
       <c r="K23" t="n">
+        <v>91.04000000000001</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.25</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>26</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>6.38</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.42</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>35</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>12.7</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.52</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>29</v>
       </c>
-      <c r="S23" t="n">
-        <v>492</v>
-      </c>
       <c r="T23" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.82</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>23827</v>
       </c>
-      <c r="V23" t="n">
-        <v>2750</v>
-      </c>
       <c r="W23" t="n">
+        <v>4425696</v>
+      </c>
+      <c r="X23" t="n">
         <v>63276</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>52889</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>49714</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>32904</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>16148</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>737-400</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>CFM56-3C-1</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>104.5</v>
-      </c>
       <c r="E24" t="n">
+        <v>104500</v>
+      </c>
+      <c r="F24" t="n">
         <v>4.01</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>3.76</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>36.45</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>28.88</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>11.13</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
       <c r="K24" t="n">
+        <v>91.04000000000001</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.25</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>26</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>6.38</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>0.42</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>35</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>12.7</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.52</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>29</v>
       </c>
-      <c r="S24" t="n">
-        <v>492</v>
-      </c>
       <c r="T24" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.82</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>23827</v>
       </c>
-      <c r="V24" t="n">
-        <v>2500</v>
-      </c>
       <c r="W24" t="n">
+        <v>4023360</v>
+      </c>
+      <c r="X24" t="n">
         <v>68039</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>56245</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>53070</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>33643</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>19881</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>737-500</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>CFM56-3B-1</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>89.40000000000001</v>
-      </c>
       <c r="E25" t="n">
+        <v>89400</v>
+      </c>
+      <c r="F25" t="n">
         <v>4.01</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>3.76</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>31.01</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>28.88</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>11.13</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
       <c r="K25" t="n">
+        <v>91.04000000000001</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>26</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>6.38</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>0.42</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>35</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>12.7</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.52</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>29</v>
       </c>
-      <c r="S25" t="n">
-        <v>492</v>
-      </c>
       <c r="T25" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.82</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>23827</v>
       </c>
-      <c r="V25" t="n">
-        <v>2900</v>
-      </c>
       <c r="W25" t="n">
+        <v>4667097.600000001</v>
+      </c>
+      <c r="X25" t="n">
         <v>61689</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>49895</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>46720</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>31311</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>15182</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>737-700</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>2</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>100.97</v>
-      </c>
       <c r="E26" t="n">
+        <v>100970</v>
+      </c>
+      <c r="F26" t="n">
         <v>4.01</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3.76</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>32.18</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>35.79</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>12.57</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>124.6</t>
-        </is>
-      </c>
       <c r="K26" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.22</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>26</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>7.73</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.22</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>30</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>14.35</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>0.33</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>32</v>
       </c>
-      <c r="S26" t="n">
-        <v>492</v>
-      </c>
       <c r="T26" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.82</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>26022</v>
       </c>
-      <c r="V26" t="n">
-        <v>3350</v>
-      </c>
       <c r="W26" t="n">
+        <v>5391302.4</v>
+      </c>
+      <c r="X26" t="n">
         <v>70080</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>58604</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>55202</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>37648</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>17554</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>11500</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>737-800</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>100.97</v>
-      </c>
       <c r="E27" t="n">
+        <v>100970</v>
+      </c>
+      <c r="F27" t="n">
         <v>4.01</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>3.76</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>39.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>35.79</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>12.57</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>124.6</t>
-        </is>
-      </c>
       <c r="K27" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.22</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>26</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>7.72</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.23</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>30</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>14.35</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>0.33</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>32</v>
       </c>
-      <c r="S27" t="n">
-        <v>492</v>
-      </c>
       <c r="T27" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.82</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>26022</v>
       </c>
-      <c r="V27" t="n">
-        <v>4050</v>
-      </c>
       <c r="W27" t="n">
+        <v>6517843.2</v>
+      </c>
+      <c r="X27" t="n">
         <v>79016</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>66361</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>62732</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>41413</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>21319</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>10500</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>737-900</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>2</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>100.97</v>
-      </c>
       <c r="E28" t="n">
+        <v>100970</v>
+      </c>
+      <c r="F28" t="n">
         <v>4.01</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>3.76</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>42.1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>35.79</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>12.57</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>124.6</t>
-        </is>
-      </c>
       <c r="K28" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.22</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>26</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>7.66</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>0.22</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>30</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>14.35</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.33</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>32</v>
       </c>
-      <c r="S28" t="n">
-        <v>492</v>
-      </c>
       <c r="T28" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.82</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>26022</v>
       </c>
-      <c r="V28" t="n">
-        <v>2800</v>
-      </c>
       <c r="W28" t="n">
+        <v>4506163.2</v>
+      </c>
+      <c r="X28" t="n">
         <v>79016</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>66814</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>63639</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>42901</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>20738</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>2</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>100.97</v>
-      </c>
       <c r="E29" t="n">
+        <v>100970</v>
+      </c>
+      <c r="F29" t="n">
         <v>4.01</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>3.76</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>42.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>35.79</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>12.57</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>124.6</t>
-        </is>
-      </c>
       <c r="K29" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.22</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>26</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>7.66</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>0.22</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>30</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>14.35</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.33</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>32</v>
       </c>
-      <c r="S29" t="n">
-        <v>492</v>
-      </c>
       <c r="T29" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U29" t="n">
         <v>0.82</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>29666</v>
       </c>
-      <c r="V29" t="n">
-        <v>4250</v>
-      </c>
       <c r="W29" t="n">
+        <v>6839712</v>
+      </c>
+      <c r="X29" t="n">
         <v>85139</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>71350</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>67721</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>44677</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>23045</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>10500</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>737-8</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>LEAP-1B28</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>130.41</v>
-      </c>
       <c r="E30" t="n">
+        <v>130410</v>
+      </c>
+      <c r="F30" t="n">
         <v>4.01</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>3.76</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>39.47</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>35.92</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>12.29</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
       <c r="K30" t="n">
+        <v>127</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.24</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>26.5</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>7.73</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>0.27</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>33.5</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>14.35</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>0.2</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>30</v>
       </c>
-      <c r="S30" t="n">
-        <v>492</v>
-      </c>
       <c r="T30" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U30" t="n">
         <v>0.82</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>25817</v>
       </c>
-      <c r="V30" t="n">
-        <v>3450</v>
-      </c>
       <c r="W30" t="n">
+        <v>5552236.8</v>
+      </c>
+      <c r="X30" t="n">
         <v>82645</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>69308</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>65952</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>40823</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>25129</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>21000</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>757-200</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>PW2040</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>181.93</v>
-      </c>
       <c r="E31" t="n">
+        <v>181930</v>
+      </c>
+      <c r="F31" t="n">
         <v>4.01</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3.76</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>47.32</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>38.02</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>13.75</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
       <c r="K31" t="n">
+        <v>185</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.23</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>23.5</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>8.01</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>0.37</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>39</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>15.21</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>0.36</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>31</v>
       </c>
-      <c r="S31" t="n">
-        <v>513</v>
-      </c>
       <c r="T31" t="n">
+        <v>950.076</v>
+      </c>
+      <c r="U31" t="n">
         <v>0.86</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>42680</v>
       </c>
-      <c r="V31" t="n">
-        <v>3800</v>
-      </c>
       <c r="W31" t="n">
+        <v>6115507.2</v>
+      </c>
+      <c r="X31" t="n">
         <v>115893</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>95254</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>90718</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>54431</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>36287</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>26500</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>MD-80</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>2</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>JT8D-217</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>92.7</v>
-      </c>
       <c r="E32" t="n">
+        <v>92700</v>
+      </c>
+      <c r="F32" t="n">
         <v>3.61</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.35</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>45.02</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>32.85</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>9</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>112.3</t>
-        </is>
-      </c>
       <c r="K32" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.24</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>24</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>4.59</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>0.71</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>40</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>12.25</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>0.37</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>31</v>
       </c>
-      <c r="S32" t="n">
-        <v>500</v>
-      </c>
       <c r="T32" t="n">
+        <v>926</v>
+      </c>
+      <c r="U32" t="n">
         <v>0.84</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>22129</v>
       </c>
-      <c r="V32" t="n">
-        <v>2040</v>
-      </c>
       <c r="W32" t="n">
+        <v>3283061.76</v>
+      </c>
+      <c r="X32" t="n">
         <v>67812</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>58567</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>55338</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>35369</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>19969</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>14500</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>MD-80</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>2</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>JT8D-217C</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>92.7</v>
-      </c>
       <c r="E33" t="n">
+        <v>92700</v>
+      </c>
+      <c r="F33" t="n">
         <v>3.61</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>3.35</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>39.75</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>32.85</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>112.3</t>
-        </is>
-      </c>
       <c r="K33" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.24</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>24</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>4.59</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>0.71</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>40</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>12.25</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.37</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>31</v>
       </c>
-      <c r="S33" t="n">
-        <v>492</v>
-      </c>
       <c r="T33" t="n">
+        <v>911.1840000000001</v>
+      </c>
+      <c r="U33" t="n">
         <v>0.82</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>22126</v>
       </c>
-      <c r="V33" t="n">
-        <v>2380</v>
-      </c>
       <c r="W33" t="n">
+        <v>3830238.72</v>
+      </c>
+      <c r="X33" t="n">
         <v>63503</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>58060</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>50802</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>33236</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>17566</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
         <v>13000</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>747-400</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>4</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>CF6-80C2B1F</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>254.26</v>
-      </c>
       <c r="E34" t="n">
+        <v>254260</v>
+      </c>
+      <c r="F34" t="n">
         <v>8.33</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>6.5</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>70.67</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>64.44</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>19.4</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
       <c r="K34" t="n">
+        <v>525</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.25</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>38</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.34</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>44</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>22.17</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.26</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>37</v>
       </c>
-      <c r="S34" t="n">
-        <v>550</v>
-      </c>
       <c r="T34" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="U34" t="n">
         <v>0.92</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>215991</v>
       </c>
-      <c r="V34" t="n">
-        <v>7100</v>
-      </c>
       <c r="W34" t="n">
+        <v>11426342.4</v>
+      </c>
+      <c r="X34" t="n">
         <v>396894</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>285764</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>256280</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>182753</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>73527</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>747-400</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>4</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>CF6-80C2B5F</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>267</v>
-      </c>
       <c r="E35" t="n">
+        <v>267000</v>
+      </c>
+      <c r="F35" t="n">
         <v>8.33</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>6.5</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>70.67</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>64.44</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>19.4</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
       <c r="K35" t="n">
+        <v>525</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>38</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>0.34</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>44</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>22.17</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>0.26</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>37</v>
       </c>
-      <c r="S35" t="n">
-        <v>550</v>
-      </c>
       <c r="T35" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.92</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>240196</v>
       </c>
-      <c r="V35" t="n">
-        <v>7900</v>
-      </c>
       <c r="W35" t="n">
+        <v>12713817.6</v>
+      </c>
+      <c r="X35" t="n">
         <v>412770</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>302093</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>277145</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>164382</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>112763</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>55500</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>767-300</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>2</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>RB211-524H</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>269.56</v>
-      </c>
       <c r="E36" t="n">
+        <v>269560</v>
+      </c>
+      <c r="F36" t="n">
         <v>5.41</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>5.03</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>54.94</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>47.57</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>15.85</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>283.3</t>
-        </is>
-      </c>
       <c r="K36" t="n">
+        <v>283.3</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.21</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>30.5</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>9.52</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>0.31</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>38.5</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>18.62</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.26</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>31</v>
       </c>
-      <c r="S36" t="n">
-        <v>516</v>
-      </c>
       <c r="T36" t="n">
+        <v>955.6320000000001</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.86</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>63216</v>
       </c>
-      <c r="V36" t="n">
-        <v>4300</v>
-      </c>
       <c r="W36" t="n">
+        <v>6920179.2</v>
+      </c>
+      <c r="X36" t="n">
         <v>158758</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>136078</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>126099</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>86069</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>40230</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>20500</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>767-300</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>RB211-524H</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>269.56</v>
-      </c>
       <c r="E37" t="n">
+        <v>269560</v>
+      </c>
+      <c r="F37" t="n">
         <v>5.41</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>5.03</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>54.94</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>47.57</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>15.85</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>283.3</t>
-        </is>
-      </c>
       <c r="K37" t="n">
+        <v>283.3</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.21</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>30.5</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>9.52</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>0.31</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>38.5</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>18.62</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.26</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>31</v>
       </c>
-      <c r="S37" t="n">
-        <v>516</v>
-      </c>
       <c r="T37" t="n">
+        <v>955.6320000000001</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.86</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>91380</v>
       </c>
-      <c r="V37" t="n">
-        <v>6400</v>
-      </c>
       <c r="W37" t="n">
+        <v>10299801.6</v>
+      </c>
+      <c r="X37" t="n">
         <v>186880</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>145150</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>133810</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>90011</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>43799</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>21000</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>777-200</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>2</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>GE90-94B</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>432.81</v>
-      </c>
       <c r="E38" t="n">
-        <v>6.19</v>
+        <v>432810</v>
       </c>
       <c r="F38" t="n">
         <v>6.19</v>
       </c>
       <c r="G38" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H38" t="n">
         <v>63.73</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>60.93</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>18.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>427.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.16</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>30</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>10.74</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>0.285</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>37.5</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>21.53</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>0.38</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>32.5</v>
       </c>
-      <c r="S38" t="n">
-        <v>522</v>
-      </c>
       <c r="T38" t="n">
+        <v>966.744</v>
+      </c>
+      <c r="U38" t="n">
         <v>0.87</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>117300</v>
       </c>
-      <c r="V38" t="n">
-        <v>6450</v>
-      </c>
       <c r="W38" t="n">
+        <v>10380268.8</v>
+      </c>
+      <c r="X38" t="n">
         <v>247207</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>201848</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>190508</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>135850</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>54620</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>17500</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>777-200</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>2</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>GE90-94B</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>432.21</v>
-      </c>
       <c r="E39" t="n">
-        <v>6.19</v>
+        <v>432210</v>
       </c>
       <c r="F39" t="n">
         <v>6.19</v>
       </c>
       <c r="G39" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H39" t="n">
         <v>63.73</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>60.93</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>18.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>427.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.16</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>30</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>10.74</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>0.285</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>37.5</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>21.53</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.38</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>32.5</v>
       </c>
-      <c r="S39" t="n">
-        <v>522</v>
-      </c>
       <c r="T39" t="n">
+        <v>966.744</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.87</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>171100</v>
       </c>
-      <c r="V39" t="n">
-        <v>8650</v>
-      </c>
       <c r="W39" t="n">
+        <v>13920825.6</v>
+      </c>
+      <c r="X39" t="n">
         <v>297556</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>213188</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>200487</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>138100</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>56940</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>22000</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>777-300ER</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>GE90-115BL1</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>513.95</v>
-      </c>
       <c r="E40" t="n">
-        <v>6.19</v>
+        <v>513950.0000000001</v>
       </c>
       <c r="F40" t="n">
         <v>6.19</v>
       </c>
       <c r="G40" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H40" t="n">
         <v>73.86</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>64.8</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>18.5</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>427.8</t>
-        </is>
-      </c>
       <c r="K40" t="n">
+        <v>427.8</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.14</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>30</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>10.26</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>0.275</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>36</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>21.53</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.36</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>33</v>
       </c>
-      <c r="S40" t="n">
-        <v>534</v>
-      </c>
       <c r="T40" t="n">
+        <v>988.9680000000001</v>
+      </c>
+      <c r="U40" t="n">
         <v>0.89</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>181283</v>
       </c>
-      <c r="V40" t="n">
-        <v>7850</v>
-      </c>
       <c r="W40" t="n">
+        <v>12633350.4</v>
+      </c>
+      <c r="X40" t="n">
         <v>351535</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>251290</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>237683</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>167829</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>69853</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>44000</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>787-8</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>GEnx-1B70</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>255.30</t>
-        </is>
-      </c>
       <c r="E41" t="n">
+        <v>255300</v>
+      </c>
+      <c r="F41" t="n">
         <v>5.94</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>5.77</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>56.72</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>60.12</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>16.92</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
       <c r="K41" t="n">
+        <v>377</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.195</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>31</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>9.83</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.31</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>39</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>19.81</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>0.265</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>36.5</v>
       </c>
-      <c r="S41" t="n">
-        <v>539</v>
-      </c>
       <c r="T41" t="n">
+        <v>998.2280000000001</v>
+      </c>
+      <c r="U41" t="n">
         <v>0.9</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>126206</v>
       </c>
-      <c r="V41" t="n">
-        <v>9500</v>
-      </c>
       <c r="W41" t="n">
+        <v>15288768</v>
+      </c>
+      <c r="X41" t="n">
         <v>227930</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>172365</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>161025</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>117934</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>43091</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>787-9</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>2</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>GEnx-1B70</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>255.30</t>
-        </is>
-      </c>
       <c r="E42" t="n">
+        <v>255300</v>
+      </c>
+      <c r="F42" t="n">
         <v>5.94</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>5.77</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>62.81</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>60.12</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>17.02</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
       <c r="K42" t="n">
+        <v>377</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.21</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>31</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.285</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>39</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>19.81</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>0.265</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>36.5</v>
       </c>
-      <c r="S42" t="n">
-        <v>539</v>
-      </c>
       <c r="T42" t="n">
+        <v>998.2280000000001</v>
+      </c>
+      <c r="U42" t="n">
         <v>0.9</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>126356</v>
       </c>
-      <c r="V42" t="n">
-        <v>8250</v>
-      </c>
       <c r="W42" t="n">
+        <v>13277088</v>
+      </c>
+      <c r="X42" t="n">
         <v>254011</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>192776</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>181436</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>127005</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AB42" t="n">
         <v>54431</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>787-10</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>GEnx-1B76</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
       <c r="E43" t="n">
+        <v>339000</v>
+      </c>
+      <c r="F43" t="n">
         <v>5.94</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>5.77</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>68.3</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>60.12</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>17.02</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>360.5</t>
-        </is>
-      </c>
       <c r="K43" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.21</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>31</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.3</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>39.5</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>19.81</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.29</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>33.5</v>
       </c>
-      <c r="S43" t="n">
-        <v>539</v>
-      </c>
       <c r="T43" t="n">
+        <v>998.2280000000001</v>
+      </c>
+      <c r="U43" t="n">
         <v>0.9</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>126356</v>
       </c>
-      <c r="V43" t="n">
-        <v>8100</v>
-      </c>
       <c r="W43" t="n">
+        <v>13035686.4</v>
+      </c>
+      <c r="X43" t="n">
         <v>254011</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>201848</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>192776</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>136077</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AB43" t="n">
         <v>56699</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>16500</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>CRJ200</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>2</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>CF34-3B1</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>41.01</v>
-      </c>
       <c r="E44" t="n">
+        <v>41010</v>
+      </c>
+      <c r="F44" t="n">
         <v>2.64</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>2.69</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>26.77</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>21.23</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>6.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>54.54</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.32</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>24.5</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>3.46</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.67</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>42</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>6.2</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>0.46</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>31</v>
       </c>
-      <c r="S44" t="n">
-        <v>507</v>
-      </c>
       <c r="T44" t="n">
+        <v>938.9640000000001</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.85</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>8082</v>
       </c>
-      <c r="V44" t="n">
-        <v>2070</v>
-      </c>
       <c r="W44" t="n">
+        <v>3331342.08</v>
+      </c>
+      <c r="X44" t="n">
         <v>24041</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>21319</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>19958</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>13835</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AB44" t="n">
         <v>6124</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>CRJ700</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>2</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>CF34-8C1</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>61.34</v>
-      </c>
       <c r="E45" t="n">
-        <v>2.69</v>
+        <v>61340</v>
       </c>
       <c r="F45" t="n">
         <v>2.69</v>
       </c>
       <c r="G45" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H45" t="n">
         <v>32.3</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>23.25</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>7.51</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>70.61</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>0.26</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>26.5</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>3.61</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>0.67</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>39</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>0.42</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>29</v>
       </c>
-      <c r="S45" t="n">
-        <v>507</v>
-      </c>
       <c r="T45" t="n">
+        <v>938.9640000000001</v>
+      </c>
+      <c r="U45" t="n">
         <v>0.85</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>10989</v>
       </c>
-      <c r="V45" t="n">
-        <v>2280</v>
-      </c>
       <c r="W45" t="n">
+        <v>3669304.32</v>
+      </c>
+      <c r="X45" t="n">
         <v>34019</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>30391</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>28260</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>20070</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AB45" t="n">
         <v>8190</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>5580</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>CRJ900</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>2</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>CF34-8C5</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>64.54000000000001</v>
-      </c>
       <c r="E46" t="n">
-        <v>2.69</v>
+        <v>64540.00000000001</v>
       </c>
       <c r="F46" t="n">
         <v>2.69</v>
       </c>
       <c r="G46" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H46" t="n">
         <v>36.24</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>23.24</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>7.35</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>71.06999999999999</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0.25</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>26</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>3.28</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>0.66</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>38.5</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>0.47</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>28.5</v>
       </c>
-      <c r="S46" t="n">
-        <v>507</v>
-      </c>
       <c r="T46" t="n">
+        <v>938.9640000000001</v>
+      </c>
+      <c r="U46" t="n">
         <v>0.85</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>10861</v>
       </c>
-      <c r="V46" t="n">
-        <v>1980</v>
-      </c>
       <c r="W46" t="n">
+        <v>3186501.12</v>
+      </c>
+      <c r="X46" t="n">
         <v>38329</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>33340</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>32092</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>21845</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>10247</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>7800</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Dash 8 Q100</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>2</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>PW121</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
         <v>2.57</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>2.69</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>22.25</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>25.91</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>7.49</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>54.35</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.5118110236220472</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>2.4</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>4.04</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>0.735</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>29</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>7.93</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>0.74</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>6.6</v>
       </c>
-      <c r="S47" t="n">
-        <v>297</v>
-      </c>
       <c r="T47" t="n">
+        <v>550.044</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.47</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>5703</v>
       </c>
-      <c r="V47" t="n">
-        <v>2580</v>
-      </c>
       <c r="W47" t="n">
+        <v>4152107.52</v>
+      </c>
+      <c r="X47" t="n">
         <v>16566</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>15377</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>14515</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>10350</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AB47" t="n">
         <v>4165</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Dash 8 Q300</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>PW123</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
         <v>2.57</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>2.69</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>25.68</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>27.43</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>7.49</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>56.1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.4645669291338582</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>2.9</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>4.04</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.74</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>29</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>7.92</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>0.74</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>5.7</v>
       </c>
-      <c r="S48" t="n">
-        <v>313</v>
-      </c>
       <c r="T48" t="n">
+        <v>579.676</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.5</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>5703</v>
       </c>
-      <c r="V48" t="n">
-        <v>2100</v>
-      </c>
       <c r="W48" t="n">
+        <v>3379622.4</v>
+      </c>
+      <c r="X48" t="n">
         <v>19505</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>19051</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>17920</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>11630</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AB48" t="n">
         <v>6290</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>3100</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Dash 8 Q400</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>2</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>PW150A</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
         <v>2.57</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>2.96</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>32.8</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>28.4</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>63.1</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.38</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>3.1</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>4.73</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>0.745</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>40</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>9.27</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>0.71</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>5.5</v>
       </c>
-      <c r="S49" t="n">
-        <v>372</v>
-      </c>
       <c r="T49" t="n">
+        <v>688.9440000000001</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.6</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>6526</v>
       </c>
-      <c r="V49" t="n">
-        <v>1530</v>
-      </c>
       <c r="W49" t="n">
+        <v>2462296.32</v>
+      </c>
+      <c r="X49" t="n">
         <v>29574</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>28123</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>26308</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>17819</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AB49" t="n">
         <v>8489</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>6500</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>EMB 120</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>2</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>PW118</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>2.28</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
         <v>2.28</v>
       </c>
       <c r="G50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H50" t="n">
         <v>20</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>19.78</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>6.35</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>39.43</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.545</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>3.5</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>3.21</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.62</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>33</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>6.94</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>0.67</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>17</v>
       </c>
-      <c r="S50" t="n">
-        <v>327</v>
-      </c>
       <c r="T50" t="n">
+        <v>605.604</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.52</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>3312</v>
       </c>
-      <c r="V50" t="n">
-        <v>1520</v>
-      </c>
       <c r="W50" t="n">
+        <v>2446202.88</v>
+      </c>
+      <c r="X50" t="n">
         <v>11990</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>11700</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>10900</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>7628</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AB50" t="n">
         <v>3272</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>1780</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>EMB145</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>2</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>AE3007 A1/1</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>33.71</v>
-      </c>
       <c r="E51" t="n">
-        <v>2.28</v>
+        <v>33710</v>
       </c>
       <c r="F51" t="n">
         <v>2.28</v>
       </c>
       <c r="G51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H51" t="n">
         <v>29.87</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>20.04</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>6.75</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>51.18</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.25</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>21.5</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>3.34</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>0.62</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>30.5</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>7.55</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.6</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>19.5</v>
       </c>
-      <c r="S51" t="n">
-        <v>471</v>
-      </c>
       <c r="T51" t="n">
+        <v>872.292</v>
+      </c>
+      <c r="U51" t="n">
         <v>0.78</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>5146</v>
       </c>
-      <c r="V51" t="n">
-        <v>1200</v>
-      </c>
       <c r="W51" t="n">
+        <v>1931212.8</v>
+      </c>
+      <c r="X51" t="n">
         <v>20600</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>18700</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>17100</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>11947</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AB51" t="n">
         <v>5153</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>4600</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>EMB145</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>2</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>AE3007 A1</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>33.71</v>
-      </c>
       <c r="E52" t="n">
-        <v>2.28</v>
+        <v>33710</v>
       </c>
       <c r="F52" t="n">
         <v>2.28</v>
       </c>
       <c r="G52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H52" t="n">
         <v>29.87</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>20.04</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>6.75</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>51.18</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.25</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>21.5</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>3.34</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>0.62</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>30.5</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>7.55</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.6</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>19.5</v>
       </c>
-      <c r="S52" t="n">
-        <v>471</v>
-      </c>
       <c r="T52" t="n">
+        <v>872.292</v>
+      </c>
+      <c r="U52" t="n">
         <v>0.78</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>6396</v>
       </c>
-      <c r="V52" t="n">
-        <v>1640</v>
-      </c>
       <c r="W52" t="n">
+        <v>2639324.16</v>
+      </c>
+      <c r="X52" t="n">
         <v>22000</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>19300</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>17900</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>12114</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
         <v>5786</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>4800</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>EMB145</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>AE3007 A1E</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>39.67</v>
-      </c>
       <c r="E53" t="n">
-        <v>2.28</v>
+        <v>39670</v>
       </c>
       <c r="F53" t="n">
         <v>2.28</v>
       </c>
       <c r="G53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H53" t="n">
         <v>29.87</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>21</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>6.75</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>51.18</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.25</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>21.5</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>3.34</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>0.62</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>30.5</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>7.55</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>0.58</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>17</v>
       </c>
-      <c r="S53" t="n">
-        <v>471</v>
-      </c>
       <c r="T53" t="n">
+        <v>872.292</v>
+      </c>
+      <c r="U53" t="n">
         <v>0.78</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>7438</v>
       </c>
-      <c r="V53" t="n">
-        <v>1950</v>
-      </c>
       <c r="W53" t="n">
+        <v>3138220.8</v>
+      </c>
+      <c r="X53" t="n">
         <v>24100</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>20000</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>18500</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>12591</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
         <v>5909</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>5050</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>170</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>2</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>CF34-8E5</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>64.54000000000001</v>
-      </c>
       <c r="E54" t="n">
+        <v>64540.00000000001</v>
+      </c>
+      <c r="F54" t="n">
         <v>3.35</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>3.01</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>29.9</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>26</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>9.82</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>72.72</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.285</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>22.5</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>5.53</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>0.315</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>34</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>10</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>0.37</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>28.5</v>
       </c>
-      <c r="S54" t="n">
-        <v>444</v>
-      </c>
       <c r="T54" t="n">
+        <v>822.288</v>
+      </c>
+      <c r="U54" t="n">
         <v>0.82</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>11625</v>
       </c>
-      <c r="V54" t="n">
-        <v>2000</v>
-      </c>
       <c r="W54" t="n">
+        <v>3218688</v>
+      </c>
+      <c r="X54" t="n">
         <v>38600</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>33300</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>30900</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>21160</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AB54" t="n">
         <v>9740</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>175</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>2</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>CF34-8E5</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>64.54000000000001</v>
-      </c>
       <c r="E55" t="n">
+        <v>64540.00000000001</v>
+      </c>
+      <c r="F55" t="n">
         <v>3.35</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>3.01</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>31.68</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>28.65</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>72.72</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.285</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>22.5</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>5.53</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>0.315</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>34</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>10</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>0.37</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>28.5</v>
       </c>
-      <c r="S55" t="n">
-        <v>444</v>
-      </c>
       <c r="T55" t="n">
+        <v>822.288</v>
+      </c>
+      <c r="U55" t="n">
         <v>0.82</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>11625</v>
       </c>
-      <c r="V55" t="n">
-        <v>1900</v>
-      </c>
       <c r="W55" t="n">
+        <v>3057753.6</v>
+      </c>
+      <c r="X55" t="n">
         <v>38790</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>34000</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>31700</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>21500</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AB55" t="n">
         <v>10200</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AC55" t="n">
         <v>7850</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>190</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>2</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>CF34-10E7</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>90.56999999999999</v>
-      </c>
       <c r="E56" t="n">
+        <v>90570</v>
+      </c>
+      <c r="F56" t="n">
         <v>3.35</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>3.01</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>36.24</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>28.72</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>10.55</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>92.5</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0.27</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>25</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>5.47</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>0.305</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>37</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>12.08</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>0.26</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>32</v>
       </c>
-      <c r="S56" t="n">
-        <v>547</v>
-      </c>
       <c r="T56" t="n">
+        <v>1013.044</v>
+      </c>
+      <c r="U56" t="n">
         <v>0.82</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>16029</v>
       </c>
-      <c r="V56" t="n">
-        <v>2320</v>
-      </c>
       <c r="W56" t="n">
+        <v>3733678.08</v>
+      </c>
+      <c r="X56" t="n">
         <v>51800</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>44000</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>40900</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>27900</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AB56" t="n">
         <v>13000</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AC56" t="n">
         <v>9300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>195</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>2</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>CF34-10E7</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>90.56999999999999</v>
-      </c>
       <c r="E57" t="n">
+        <v>90570</v>
+      </c>
+      <c r="F57" t="n">
         <v>3.35</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>3.01</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>38.67</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>28.72</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>10.57</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>92.5</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.275</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>22.5</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>5.47</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>0.305</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>34.5</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>12.08</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>0.275</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>29.5</v>
       </c>
-      <c r="S57" t="n">
-        <v>547</v>
-      </c>
       <c r="T57" t="n">
+        <v>1013.044</v>
+      </c>
+      <c r="U57" t="n">
         <v>0.82</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>16029</v>
       </c>
-      <c r="V57" t="n">
-        <v>2290</v>
-      </c>
       <c r="W57" t="n">
+        <v>3685397.76</v>
+      </c>
+      <c r="X57" t="n">
         <v>52290</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>45800</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>42600</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>28700</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AB57" t="n">
         <v>13900</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Merlin</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>331-3U-303G</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>12.85</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>14.1</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>5.08</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>25.78</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.395</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>0.9</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>2.93</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>0.27</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>26</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>4.48</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>0.47</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>36.5</v>
       </c>
-      <c r="S58" t="n">
-        <v>380</v>
-      </c>
       <c r="T58" t="n">
+        <v>703.76</v>
+      </c>
+      <c r="U58" t="n">
         <v>0.63</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>2468</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>1938</t>
-        </is>
-      </c>
       <c r="W58" t="n">
+        <v>3118908.672</v>
+      </c>
+      <c r="X58" t="n">
         <v>5670</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>5217</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>4535</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>3356</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AB58" t="n">
         <v>1179</v>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>1,944.176</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Metro</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>2</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>331-3UW-303G</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
         <v>18.09</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>14.1</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>5.08</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>25.78</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.395</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.9</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>2.93</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>0.27</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>26</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>4.48</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>0.47</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>36.5</v>
       </c>
-      <c r="S59" t="n">
-        <v>308</v>
-      </c>
       <c r="T59" t="n">
+        <v>570.4160000000001</v>
+      </c>
+      <c r="U59" t="n">
         <v>0.5</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>2452</v>
       </c>
-      <c r="V59" t="n">
-        <v>87</v>
-      </c>
       <c r="W59" t="n">
-        <v>5670</v>
+        <v>140012.928</v>
       </c>
       <c r="X59" t="n">
         <v>5670</v>
@@ -5711,460 +5831,466 @@
         <v>5670</v>
       </c>
       <c r="Z59" t="n">
+        <v>5670</v>
+      </c>
+      <c r="AA59" t="n">
         <v>3345</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AB59" t="n">
         <v>2325</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AC59" t="n">
         <v>1778</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Fokker 50</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>2</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>PW125B</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
         <v>2.8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>2.7</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>25.25</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>29</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>8.32</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>70</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>0.4</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>1.5</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>4.6</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>0.385</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>17</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>9.75</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>0.36</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>6</v>
       </c>
-      <c r="S60" t="n">
-        <v>305</v>
-      </c>
       <c r="T60" t="n">
+        <v>564.86</v>
+      </c>
+      <c r="U60" t="n">
         <v>0.507</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>5136</v>
       </c>
-      <c r="V60" t="n">
-        <v>1720</v>
-      </c>
       <c r="W60" t="n">
+        <v>2768071.68</v>
+      </c>
+      <c r="X60" t="n">
         <v>20820</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>20030</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>18900</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>13400</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AB60" t="n">
         <v>5500</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AC60" t="n">
         <v>3300</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Fokker 100</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>2</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Tay 650-15</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>67.17</v>
-      </c>
       <c r="E61" t="n">
-        <v>3.3</v>
+        <v>67170</v>
       </c>
       <c r="F61" t="n">
         <v>3.3</v>
       </c>
       <c r="G61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H61" t="n">
         <v>35.53</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>28.08</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>8.42</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
       <c r="K61" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.29</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>17.5</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>4.08</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.705</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>37.5</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>10.04</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>0.41</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>25.5</v>
       </c>
-      <c r="S61" t="n">
-        <v>462</v>
-      </c>
       <c r="T61" t="n">
+        <v>855.624</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.77</v>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>13365</v>
       </c>
-      <c r="V61" t="n">
-        <v>1720</v>
-      </c>
       <c r="W61" t="n">
+        <v>2768071.68</v>
+      </c>
+      <c r="X61" t="n">
         <v>45810</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>39915</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>36740</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>24747</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AB61" t="n">
         <v>11993</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AC61" t="n">
         <v>9200</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Saab 340</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>GE CT7-9B</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>26.4</t>
-        </is>
-      </c>
       <c r="E62" t="n">
-        <v>2.31</v>
+        <v>26400</v>
       </c>
       <c r="F62" t="n">
         <v>2.31</v>
       </c>
       <c r="G62" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H62" t="n">
         <v>19.73</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>22.7</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>6.97</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>43.11</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.365</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>4.5</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>3.74</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>0.38</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>32</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>9.24</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>0.4</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>5</v>
       </c>
-      <c r="S62" t="n">
-        <v>283</v>
-      </c>
       <c r="T62" t="n">
+        <v>524.116</v>
+      </c>
+      <c r="U62" t="n">
         <v>0.47</v>
       </c>
-      <c r="U62" t="n">
+      <c r="V62" t="n">
         <v>3220</v>
       </c>
-      <c r="V62" t="n">
-        <v>1220</v>
-      </c>
       <c r="W62" t="n">
+        <v>1963399.68</v>
+      </c>
+      <c r="X62" t="n">
         <v>13605</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
         <v>12930</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>12020</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>8620</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AB62" t="n">
         <v>3400</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AC62" t="n">
         <v>2450</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Superjet 100</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>2</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>SaM146</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>71600</v>
+      </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
         <v>29.94</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>27.8</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>10.28</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>83.8</t>
-        </is>
-      </c>
       <c r="K63" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.255</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>25</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>5.47</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.305</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>33.5</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>10</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>0.27</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>30</v>
       </c>
-      <c r="S63" t="n">
-        <v>488</v>
-      </c>
       <c r="T63" t="n">
+        <v>903.7760000000001</v>
+      </c>
+      <c r="U63" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>15805</v>
       </c>
-      <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
+        <v>3048000</v>
+      </c>
+      <c r="X63" t="n">
         <v>45880</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
         <v>41000</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>40000</v>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>25100</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>12245</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>25100</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>12245</v>
+      </c>
+      <c r="AC63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Twin Otter</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>2</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>PT6A-34</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>4.44</v>
       </c>
       <c r="G64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H64" t="n">
         <v>15.77</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>19.81</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>5.94</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>39.02</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>0</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>3.9</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>0.51</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>24</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>6.29</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>1</v>
       </c>
-      <c r="S64" t="n">
-        <v>187</v>
-      </c>
       <c r="T64" t="n">
+        <v>346.324</v>
+      </c>
+      <c r="U64" t="n">
         <v>0.29</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>1446</v>
       </c>
-      <c r="V64" t="n">
-        <v>702</v>
-      </c>
       <c r="W64" t="n">
+        <v>1129759.488</v>
+      </c>
+      <c r="X64" t="n">
         <v>5670</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>5579</v>
       </c>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="n">
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="n">
         <v>3377</v>
       </c>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="n">
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="n">
         <v>1030</v>
       </c>
     </row>

--- a/60_used_aircrafts_dataset_added_new.xlsx
+++ b/60_used_aircrafts_dataset_added_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,132 +446,187 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Engine_Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Engine_Model</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Max_Takeoff_Thrust</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cabin_Length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Cabin_Height</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Cabin_Width</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Passenger_Compartment_Volume</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Fuselage_Height</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Fuselage_Width</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Aircraft_Length</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wing_Span</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Aircraft_Height</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Wing_Area</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Wing_Taper_Ratio</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>1/4_Wing_Sweep</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Height_b_V_[m]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Taper_ratio_λ_V</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>1/4_Chord_Sweep_φ_25,V_[°]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Span_b_H</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Taper_Ratio_λ_H</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>1/4_Chord_Sweep_φ_25</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>V_MO</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>M_MO</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Cruise_Altitude</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Max_Usable_Fuel</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Payload</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Pax_R_M</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Max_Range_R_PLMR</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Max_Take_Off_m_MTO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Max_Landing_m_ML</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Max_Zero_Fuel</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Operating_Empty_m_OE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Max_Payload_m_MPL</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Payload_at_Max_Range_m_PLMR</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_V_CARGO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Seats_n_M,SEAT</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Layout_n_SEAT</t>
         </is>
       </c>
     </row>
@@ -589,83 +644,114 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>PW1521G</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>97730</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
         <v>3.72</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>3.51</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>38.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>35.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>11.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>112.3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
         <v>0.26</v>
       </c>
-      <c r="M2" t="n">
+      <c r="R2" t="n">
         <v>26</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
         <v>6</v>
       </c>
-      <c r="O2" t="n">
+      <c r="T2" t="n">
         <v>0.35</v>
       </c>
-      <c r="P2" t="n">
+      <c r="U2" t="n">
         <v>35.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
         <v>12.26</v>
       </c>
-      <c r="R2" t="n">
+      <c r="W2" t="n">
         <v>0.375</v>
       </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
         <v>30.5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>905.628</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Z2" t="n">
         <v>0.82</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="n">
         <v>21381</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AC2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4988966.4</v>
+      </c>
+      <c r="AE2" t="n">
         <v>5391302.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AF2" t="n">
         <v>70900</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AG2" t="n">
         <v>58800</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AH2" t="n">
         <v>55800</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AI2" t="n">
         <v>43500</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AJ2" t="n">
         <v>12300</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AK2" t="n">
         <v>6350</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>149</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -682,83 +768,116 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CFM56-5A5</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>104530</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>120</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.14</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>3.95</v>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>33.84</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>35.8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
         <v>11.76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>122.4</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>0.25</v>
       </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
         <v>23.5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
         <v>5.87</v>
       </c>
-      <c r="O3" t="n">
+      <c r="T3" t="n">
         <v>0.33</v>
       </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
         <v>35</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="V3" t="n">
         <v>12.45</v>
       </c>
-      <c r="R3" t="n">
+      <c r="W3" t="n">
         <v>0.375</v>
       </c>
-      <c r="S3" t="n">
+      <c r="X3" t="n">
         <v>28</v>
       </c>
-      <c r="T3" t="n">
+      <c r="Y3" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Z3" t="n">
         <v>0.82</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="n">
         <v>15609</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AC3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4828032</v>
+      </c>
+      <c r="AE3" t="n">
         <v>6356908.8</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AF3" t="n">
         <v>75500</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AG3" t="n">
         <v>62500</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AH3" t="n">
         <v>58500</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AI3" t="n">
         <v>35400</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AJ3" t="n">
         <v>23100</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AK3" t="n">
         <v>9800</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -775,83 +894,116 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>LEAP-1A26</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>120640</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.14</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>3.95</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>33.84</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>35.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>11.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>122.4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
         <v>23.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
         <v>5.87</v>
       </c>
-      <c r="O4" t="n">
+      <c r="T4" t="n">
         <v>0.33</v>
       </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>35</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="V4" t="n">
         <v>12.45</v>
       </c>
-      <c r="R4" t="n">
+      <c r="W4" t="n">
         <v>0.375</v>
       </c>
-      <c r="S4" t="n">
+      <c r="X4" t="n">
         <v>28</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Y4" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
         <v>0.82</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="n">
         <v>15477</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AC4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5632704</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6920179.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AF4" t="n">
         <v>75500</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AG4" t="n">
         <v>63900</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AH4" t="n">
         <v>60300</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
         <v>39600</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AJ4" t="n">
         <v>20700</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AK4" t="n">
         <v>11000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -868,83 +1020,116 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CFM56-5B4</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>120100</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>139</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.14</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>3.95</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>35.57</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>35.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>11.76</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>122.4</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>0.25</v>
       </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
         <v>23.5</v>
       </c>
-      <c r="N5" t="n">
+      <c r="S5" t="n">
         <v>5.87</v>
       </c>
-      <c r="O5" t="n">
+      <c r="T5" t="n">
         <v>0.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="U5" t="n">
         <v>35</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="n">
         <v>12.45</v>
       </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>0.375</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
         <v>28</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Y5" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Z5" t="n">
         <v>0.82</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="n">
         <v>15609</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AC5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4586630.4</v>
+      </c>
+      <c r="AE5" t="n">
         <v>5310835.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AF5" t="n">
         <v>78000</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AG5" t="n">
         <v>66000</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AH5" t="n">
         <v>62500</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AI5" t="n">
         <v>43500</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AJ5" t="n">
         <v>19000</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AK5" t="n">
         <v>13000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -961,83 +1146,116 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>LEAP-1A29</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>130290</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>139</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.14</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>3.95</v>
       </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
         <v>35.57</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
         <v>35.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="O6" t="n">
         <v>11.76</v>
       </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>122.4</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
         <v>23.5</v>
       </c>
-      <c r="N6" t="n">
+      <c r="S6" t="n">
         <v>5.87</v>
       </c>
-      <c r="O6" t="n">
+      <c r="T6" t="n">
         <v>0.33</v>
       </c>
-      <c r="P6" t="n">
+      <c r="U6" t="n">
         <v>35</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="V6" t="n">
         <v>12.45</v>
       </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>0.375</v>
       </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
         <v>23.5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Z6" t="n">
         <v>0.82</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
         <v>15609</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AC6" t="n">
+        <v>2450</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5069433.600000001</v>
+      </c>
+      <c r="AE6" t="n">
         <v>6437376</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AF6" t="n">
         <v>79000</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AG6" t="n">
         <v>67400</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AH6" t="n">
         <v>64300</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AI6" t="n">
         <v>45800</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
         <v>18500</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AK6" t="n">
         <v>12000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>194</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -1054,83 +1272,116 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CFM56-5B1</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>133440</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>155</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.14</v>
       </c>
-      <c r="G7" t="n">
+      <c r="L7" t="n">
         <v>3.95</v>
       </c>
-      <c r="H7" t="n">
+      <c r="M7" t="n">
         <v>44.51</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
         <v>35.8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="O7" t="n">
         <v>11.76</v>
       </c>
-      <c r="K7" t="n">
+      <c r="P7" t="n">
         <v>122.4</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Q7" t="n">
         <v>0.25</v>
       </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
         <v>23.5</v>
       </c>
-      <c r="N7" t="n">
+      <c r="S7" t="n">
         <v>5.87</v>
       </c>
-      <c r="O7" t="n">
+      <c r="T7" t="n">
         <v>0.33</v>
       </c>
-      <c r="P7" t="n">
+      <c r="U7" t="n">
         <v>35</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="n">
         <v>12.45</v>
       </c>
-      <c r="R7" t="n">
+      <c r="W7" t="n">
         <v>0.375</v>
       </c>
-      <c r="S7" t="n">
+      <c r="X7" t="n">
         <v>23.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="Y7" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Z7" t="n">
         <v>0.82</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
         <v>15500</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AC7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4747564.8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>4667097.600000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AF7" t="n">
         <v>93500</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AG7" t="n">
         <v>77800</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AH7" t="n">
         <v>73800</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>47500</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
         <v>26300</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AK7" t="n">
         <v>20000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -1147,83 +1398,116 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>LEAP-1A32</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>143050</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>155</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.14</v>
       </c>
-      <c r="G8" t="n">
+      <c r="L8" t="n">
         <v>3.95</v>
       </c>
-      <c r="H8" t="n">
+      <c r="M8" t="n">
         <v>44.51</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
         <v>35.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="O8" t="n">
         <v>11.76</v>
       </c>
-      <c r="K8" t="n">
+      <c r="P8" t="n">
         <v>122.4</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>0.2701812191103789</v>
       </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
         <v>23.5</v>
       </c>
-      <c r="N8" t="n">
+      <c r="S8" t="n">
         <v>5.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="T8" t="n">
         <v>0.33</v>
       </c>
-      <c r="P8" t="n">
+      <c r="U8" t="n">
         <v>35</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="V8" t="n">
         <v>12.45</v>
       </c>
-      <c r="R8" t="n">
+      <c r="W8" t="n">
         <v>0.375</v>
       </c>
-      <c r="S8" t="n">
+      <c r="X8" t="n">
         <v>23.5</v>
       </c>
-      <c r="T8" t="n">
+      <c r="Y8" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Z8" t="n">
         <v>0.82</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="n">
         <v>15380</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AC8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5793638.4</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5632704</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AF8" t="n">
         <v>97000</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AG8" t="n">
         <v>79200</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AH8" t="n">
         <v>75600</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
         <v>46600</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
         <v>29000</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AK8" t="n">
         <v>22000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>244</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -1240,83 +1524,116 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>CF6-80E1A3</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>304840</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J9" t="n">
+        <v>335</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.64</v>
       </c>
-      <c r="G9" t="n">
+      <c r="L9" t="n">
         <v>5.64</v>
       </c>
-      <c r="H9" t="n">
+      <c r="M9" t="n">
         <v>58.82</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
         <v>60.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="O9" t="n">
         <v>17.39</v>
       </c>
-      <c r="K9" t="n">
+      <c r="P9" t="n">
         <v>122.4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>0.235</v>
       </c>
-      <c r="M9" t="n">
+      <c r="R9" t="n">
         <v>28.5</v>
       </c>
-      <c r="N9" t="n">
+      <c r="S9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O9" t="n">
+      <c r="T9" t="n">
         <v>0.36</v>
       </c>
-      <c r="P9" t="n">
+      <c r="U9" t="n">
         <v>39</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="V9" t="n">
         <v>19.4</v>
       </c>
-      <c r="R9" t="n">
+      <c r="W9" t="n">
         <v>0.4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="X9" t="n">
         <v>29</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Y9" t="n">
         <v>1061.196</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Z9" t="n">
         <v>0.86</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
         <v>139090</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AC9" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11587276.8</v>
+      </c>
+      <c r="AE9" t="n">
         <v>8529523.200000001</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AF9" t="n">
         <v>242000</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AG9" t="n">
         <v>182000</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AH9" t="n">
         <v>170000</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
         <v>124000</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AJ9" t="n">
         <v>46000</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AK9" t="n">
         <v>42000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>406</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="10">
@@ -1333,83 +1650,116 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>CF6-80E1A3</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>304840</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>372</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.64</v>
       </c>
-      <c r="G10" t="n">
+      <c r="L10" t="n">
         <v>5.64</v>
       </c>
-      <c r="H10" t="n">
+      <c r="M10" t="n">
         <v>63.66</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
         <v>60.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="O10" t="n">
         <v>16.79</v>
       </c>
-      <c r="K10" t="n">
+      <c r="P10" t="n">
         <v>361.6</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="n">
         <v>0.235</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
         <v>28.5</v>
       </c>
-      <c r="N10" t="n">
+      <c r="S10" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
         <v>0.4</v>
       </c>
-      <c r="P10" t="n">
+      <c r="U10" t="n">
         <v>39</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="V10" t="n">
         <v>19.4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="W10" t="n">
         <v>0.425</v>
       </c>
-      <c r="S10" t="n">
+      <c r="X10" t="n">
         <v>29.5</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Y10" t="n">
         <v>1061.196</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Z10" t="n">
         <v>0.86</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
         <v>139090</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AC10" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9897465.6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>7724851.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AF10" t="n">
         <v>242000</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AG10" t="n">
         <v>187000</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AH10" t="n">
         <v>175000</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
         <v>129000</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AJ10" t="n">
         <v>46000</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AK10" t="n">
         <v>42000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1426,83 +1776,116 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>7000-72</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>323980</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>372</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.64</v>
       </c>
-      <c r="G11" t="n">
+      <c r="L11" t="n">
         <v>5.64</v>
       </c>
-      <c r="H11" t="n">
+      <c r="M11" t="n">
         <v>63.66</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
         <v>64</v>
       </c>
-      <c r="J11" t="n">
+      <c r="O11" t="n">
         <v>16.79</v>
       </c>
-      <c r="K11" t="n">
+      <c r="P11" t="n">
         <v>361.6</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
         <v>0.17</v>
       </c>
-      <c r="M11" t="n">
+      <c r="R11" t="n">
         <v>29</v>
       </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="O11" t="n">
+      <c r="T11" t="n">
         <v>0.4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="U11" t="n">
         <v>43.5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="V11" t="n">
         <v>19.4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="W11" t="n">
         <v>0.4</v>
       </c>
-      <c r="S11" t="n">
+      <c r="X11" t="n">
         <v>29</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="n">
         <v>1061.196</v>
       </c>
-      <c r="U11" t="n">
+      <c r="Z11" t="n">
         <v>0.86</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="n">
         <v>139090</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AC11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11024006.4</v>
+      </c>
+      <c r="AE11" t="n">
         <v>8851392</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AF11" t="n">
         <v>251000</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AG11" t="n">
         <v>191000</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AH11" t="n">
         <v>181000</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AI11" t="n">
         <v>135000</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AJ11" t="n">
         <v>46000</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AK11" t="n">
         <v>42000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -1519,83 +1902,116 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>XWB-84</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>374500</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="J12" t="n">
+        <v>473.7</v>
+      </c>
+      <c r="K12" t="n">
         <v>6.09</v>
       </c>
-      <c r="G12" t="n">
+      <c r="L12" t="n">
         <v>5.96</v>
       </c>
-      <c r="H12" t="n">
+      <c r="M12" t="n">
         <v>66.8</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
         <v>64.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="O12" t="n">
         <v>17.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="P12" t="n">
         <v>361.6</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Q12" t="n">
         <v>0.16</v>
       </c>
-      <c r="M12" t="n">
+      <c r="R12" t="n">
         <v>32</v>
       </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
         <v>9.42</v>
       </c>
-      <c r="O12" t="n">
+      <c r="T12" t="n">
         <v>0.39</v>
       </c>
-      <c r="P12" t="n">
+      <c r="U12" t="n">
         <v>40</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="V12" t="n">
         <v>18.79</v>
       </c>
-      <c r="R12" t="n">
+      <c r="W12" t="n">
         <v>0.395</v>
       </c>
-      <c r="S12" t="n">
+      <c r="X12" t="n">
         <v>33.5</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Y12" t="n">
         <v>1098.236</v>
       </c>
-      <c r="U12" t="n">
+      <c r="Z12" t="n">
         <v>0.89</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
         <v>140795</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AC12" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12874752</v>
+      </c>
+      <c r="AE12" t="n">
         <v>13840358.4</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AF12" t="n">
         <v>280000</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AG12" t="n">
         <v>207000</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AH12" t="n">
         <v>1957000</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AI12" t="n">
         <v>1903000</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AJ12" t="n">
         <v>54000</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AK12" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>170.22</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="13">
@@ -1612,83 +2028,114 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>XWB-97</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>431500</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>58.03</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>6.09</v>
       </c>
-      <c r="G13" t="n">
+      <c r="L13" t="n">
         <v>5.96</v>
       </c>
-      <c r="H13" t="n">
+      <c r="M13" t="n">
         <v>73.79000000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
         <v>64.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
         <v>17.08</v>
       </c>
-      <c r="K13" t="n">
+      <c r="P13" t="n">
         <v>443</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
         <v>0.16</v>
       </c>
-      <c r="M13" t="n">
+      <c r="R13" t="n">
         <v>32</v>
       </c>
-      <c r="N13" t="n">
+      <c r="S13" t="n">
         <v>9.42</v>
       </c>
-      <c r="O13" t="n">
+      <c r="T13" t="n">
         <v>0.39</v>
       </c>
-      <c r="P13" t="n">
+      <c r="U13" t="n">
         <v>40</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="V13" t="n">
         <v>18.79</v>
       </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
         <v>0.395</v>
       </c>
-      <c r="S13" t="n">
+      <c r="X13" t="n">
         <v>33.5</v>
       </c>
-      <c r="T13" t="n">
+      <c r="Y13" t="n">
         <v>1098.236</v>
       </c>
-      <c r="U13" t="n">
+      <c r="Z13" t="n">
         <v>0.89</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="n">
         <v>158791</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AC13" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13357555.2</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13679424</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AF13" t="n">
         <v>319000</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AG13" t="n">
         <v>236000</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AH13" t="n">
         <v>223000</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AI13" t="n">
         <v>156000</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AJ13" t="n">
         <v>67000</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AK13" t="n">
         <v>33000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>206.02</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>480</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="14">
@@ -1705,83 +2152,116 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>970B-84</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>348310</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1305</v>
+      </c>
+      <c r="K14" t="n">
         <v>8.41</v>
       </c>
-      <c r="G14" t="n">
+      <c r="L14" t="n">
         <v>7.14</v>
       </c>
-      <c r="H14" t="n">
+      <c r="M14" t="n">
         <v>72.73</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
         <v>79.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="O14" t="n">
         <v>24.1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="P14" t="n">
         <v>845</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
         <v>0.225</v>
       </c>
-      <c r="M14" t="n">
+      <c r="R14" t="n">
         <v>33.5</v>
       </c>
-      <c r="N14" t="n">
+      <c r="S14" t="n">
         <v>14.59</v>
       </c>
-      <c r="O14" t="n">
+      <c r="T14" t="n">
         <v>0.39</v>
       </c>
-      <c r="P14" t="n">
+      <c r="U14" t="n">
         <v>40</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="V14" t="n">
         <v>30.37</v>
       </c>
-      <c r="R14" t="n">
+      <c r="W14" t="n">
         <v>0.38</v>
       </c>
-      <c r="S14" t="n">
+      <c r="X14" t="n">
         <v>33.5</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Y14" t="n">
         <v>1098.236</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Z14" t="n">
         <v>0.89</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
         <v>324339</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AC14" t="n">
+        <v>6600</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12874752</v>
+      </c>
+      <c r="AE14" t="n">
         <v>14162227.2</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AF14" t="n">
         <v>575000</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AG14" t="n">
         <v>394000</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AH14" t="n">
         <v>369000</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AI14" t="n">
         <v>285000</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AJ14" t="n">
         <v>84000</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AK14" t="n">
         <v>35000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>868</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>573</v>
       </c>
     </row>
     <row r="15">
@@ -1798,80 +2278,107 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>AI-24</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="L15" t="n">
         <v>2.9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="M15" t="n">
         <v>23.53</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
         <v>29.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="O15" t="n">
         <v>8.32</v>
       </c>
-      <c r="K15" t="n">
+      <c r="P15" t="n">
         <v>74.98</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Q15" t="n">
         <v>0.34</v>
       </c>
-      <c r="M15" t="n">
+      <c r="R15" t="n">
         <v>4.5</v>
       </c>
-      <c r="N15" t="n">
+      <c r="S15" t="n">
         <v>4.93</v>
       </c>
-      <c r="O15" t="n">
+      <c r="T15" t="n">
         <v>0.445</v>
       </c>
-      <c r="P15" t="n">
+      <c r="U15" t="n">
         <v>20</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="V15" t="n">
         <v>9.08</v>
       </c>
-      <c r="R15" t="n">
+      <c r="W15" t="n">
         <v>0.405</v>
       </c>
-      <c r="S15" t="n">
+      <c r="X15" t="n">
         <v>17</v>
       </c>
-      <c r="T15" t="n">
+      <c r="Y15" t="n">
         <v>538.932</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Z15" t="n">
         <v>0.4365</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="n">
         <v>4940</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AC15" t="n">
+        <v>530</v>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
         <v>1738091.52</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AF15" t="n">
         <v>21800</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AG15" t="n">
         <v>21000</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AH15" t="n">
         <v>20300</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AI15" t="n">
         <v>14800</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AJ15" t="n">
         <v>5500</v>
       </c>
-      <c r="AC15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1887,68 +2394,93 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>PW127M</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>2.63</v>
       </c>
-      <c r="G16" t="n">
+      <c r="L16" t="n">
         <v>2.87</v>
       </c>
-      <c r="H16" t="n">
+      <c r="M16" t="n">
         <v>22.67</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
         <v>24.57</v>
       </c>
-      <c r="J16" t="n">
+      <c r="O16" t="n">
         <v>7.59</v>
       </c>
-      <c r="K16" t="n">
+      <c r="P16" t="n">
         <v>54.5</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
         <v>4.53</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
         <v>7.31</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="n">
         <v>555.6</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Z16" t="n">
         <v>0.55</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="n">
         <v>5700</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>1131368.832</v>
+      </c>
+      <c r="AE16" t="n">
         <v>1150000</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AF16" t="n">
         <v>18600</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AG16" t="n">
         <v>18300</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AH16" t="n">
         <v>17000</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AI16" t="n">
         <v>11550</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AJ16" t="n">
         <v>5300</v>
       </c>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1964,80 +2496,105 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>PW127M/N</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>2.63</v>
       </c>
-      <c r="G17" t="n">
+      <c r="L17" t="n">
         <v>2.87</v>
       </c>
-      <c r="H17" t="n">
+      <c r="M17" t="n">
         <v>27.17</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
         <v>27.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="O17" t="n">
         <v>7.65</v>
       </c>
-      <c r="K17" t="n">
+      <c r="P17" t="n">
         <v>61</v>
       </c>
-      <c r="L17" t="n">
+      <c r="Q17" t="n">
         <v>0.465</v>
       </c>
-      <c r="M17" t="n">
+      <c r="R17" t="n">
         <v>3.5</v>
       </c>
-      <c r="N17" t="n">
+      <c r="S17" t="n">
         <v>4.43</v>
       </c>
-      <c r="O17" t="n">
+      <c r="T17" t="n">
         <v>0.65</v>
       </c>
-      <c r="P17" t="n">
+      <c r="U17" t="n">
         <v>29</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="V17" t="n">
         <v>7.31</v>
       </c>
-      <c r="R17" t="n">
+      <c r="W17" t="n">
         <v>0.525</v>
       </c>
-      <c r="S17" t="n">
+      <c r="X17" t="n">
         <v>5.5</v>
       </c>
-      <c r="T17" t="n">
+      <c r="Y17" t="n">
         <v>509.3</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Z17" t="n">
         <v>0.55</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="n">
         <v>6360</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>1219882.752</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1528000</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AF17" t="n">
         <v>23000</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AG17" t="n">
         <v>22350</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AH17" t="n">
         <v>21000</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AI17" t="n">
         <v>13010</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AJ17" t="n">
         <v>7550</v>
       </c>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2053,80 +2610,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>TPE 331-12UHR</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.98</v>
       </c>
-      <c r="G18" t="n">
+      <c r="L18" t="n">
         <v>1.98</v>
       </c>
-      <c r="H18" t="n">
+      <c r="M18" t="n">
         <v>14.36</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
         <v>15.85</v>
       </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
         <v>5.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="P18" t="n">
         <v>25.08</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Q18" t="n">
         <v>0.33</v>
       </c>
-      <c r="M18" t="n">
+      <c r="R18" t="n">
         <v>0.7</v>
       </c>
-      <c r="N18" t="n">
+      <c r="S18" t="n">
         <v>3.2</v>
       </c>
-      <c r="O18" t="n">
+      <c r="T18" t="n">
         <v>0.295</v>
       </c>
-      <c r="P18" t="n">
+      <c r="U18" t="n">
         <v>40</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="V18" t="n">
         <v>6.6</v>
       </c>
-      <c r="R18" t="n">
+      <c r="W18" t="n">
         <v>0.41</v>
       </c>
-      <c r="S18" t="n">
+      <c r="X18" t="n">
         <v>7.12</v>
       </c>
-      <c r="T18" t="n">
+      <c r="Y18" t="n">
         <v>463</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Z18" t="n">
         <v>0.375</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="n">
         <v>1846</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="n">
         <v>1260000</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AF18" t="n">
         <v>7350</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AG18" t="n">
         <v>7080</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AH18" t="n">
         <v>6736</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
         <v>5098</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AJ18" t="n">
         <v>1638</v>
       </c>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2140,56 +2726,75 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>PT6A-36</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>13.58</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
         <v>13.98</v>
       </c>
-      <c r="J19" t="n">
+      <c r="O19" t="n">
         <v>4.38</v>
       </c>
-      <c r="K19" t="n">
+      <c r="P19" t="n">
         <v>25.98</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="n">
         <v>522.264</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Z19" t="n">
         <v>0.45</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="n">
         <v>1412</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="n">
         <v>1466112.384</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AF19" t="n">
         <v>5126</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AG19" t="n">
         <v>5126</v>
       </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="n">
         <v>2946</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2205,68 +2810,101 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>PT6A-65B</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>7.7</v>
+      </c>
       <c r="H20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>17.62</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
         <v>17.64</v>
       </c>
-      <c r="J20" t="n">
+      <c r="O20" t="n">
         <v>4.72</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
         <v>5.61</v>
       </c>
-      <c r="R20" t="n">
+      <c r="W20" t="n">
         <v>0.54</v>
       </c>
-      <c r="S20" t="n">
+      <c r="X20" t="n">
         <v>17.6</v>
       </c>
-      <c r="T20" t="n">
+      <c r="Y20" t="n">
         <v>550.044</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Z20" t="n">
         <v>0.47</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AA20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB20" t="n">
         <v>2525</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>1931212.8</v>
+      </c>
+      <c r="AE20" t="n">
         <v>2778000</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AF20" t="n">
         <v>7983</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AG20" t="n">
         <v>7584</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AH20" t="n">
         <v>6804</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
         <v>4702</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AJ20" t="n">
         <v>2102</v>
       </c>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2282,58 +2920,93 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>PT6A-67D</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>7.7</v>
+      </c>
       <c r="H21" t="n">
-        <v>17.62</v>
+        <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>17.64</v>
+        <v>1.37</v>
       </c>
       <c r="J21" t="n">
-        <v>4.72</v>
+        <v>18.12</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.72</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="n">
         <v>557.452</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Z21" t="n">
         <v>0.48</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AA21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB21" t="n">
         <v>2517</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AC21" t="n">
+        <v>133</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>614769.4080000001</v>
+      </c>
+      <c r="AE21" t="n">
         <v>1279000</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AF21" t="n">
         <v>7764</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AG21" t="n">
         <v>7603</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AH21" t="n">
         <v>7120</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AI21" t="n">
         <v>4932</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AJ21" t="n">
         <v>2189</v>
       </c>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2349,83 +3022,112 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>BR700-715C1-30</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>95330</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
         <v>3.6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="L22" t="n">
         <v>3.34</v>
       </c>
-      <c r="H22" t="n">
+      <c r="M22" t="n">
         <v>37.81</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
         <v>28.45</v>
       </c>
-      <c r="J22" t="n">
+      <c r="O22" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="K22" t="n">
+      <c r="P22" t="n">
         <v>92.97</v>
       </c>
-      <c r="L22" t="n">
+      <c r="Q22" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="M22" t="n">
+      <c r="R22" t="n">
         <v>24</v>
       </c>
-      <c r="N22" t="n">
+      <c r="S22" t="n">
         <v>4.75</v>
       </c>
-      <c r="O22" t="n">
+      <c r="T22" t="n">
         <v>0.74</v>
       </c>
-      <c r="P22" t="n">
+      <c r="U22" t="n">
         <v>43</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="V22" t="n">
         <v>11.2</v>
       </c>
-      <c r="R22" t="n">
+      <c r="W22" t="n">
         <v>0.37</v>
       </c>
-      <c r="S22" t="n">
+      <c r="X22" t="n">
         <v>31</v>
       </c>
-      <c r="T22" t="n">
+      <c r="Y22" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U22" t="n">
+      <c r="Z22" t="n">
         <v>0.82</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
         <v>14758</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AC22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3299155.2</v>
+      </c>
+      <c r="AE22" t="n">
         <v>3218688</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AF22" t="n">
         <v>54884</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AG22" t="n">
         <v>49898</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AH22" t="n">
         <v>45586</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
         <v>31071</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AJ22" t="n">
         <v>14515</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AK22" t="n">
         <v>10500</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>134</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -2442,83 +3144,114 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>CFM56-3B-2</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>98300</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
         <v>4.01</v>
       </c>
-      <c r="G23" t="n">
+      <c r="L23" t="n">
         <v>3.76</v>
       </c>
-      <c r="H23" t="n">
+      <c r="M23" t="n">
         <v>33.4</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
         <v>28.88</v>
       </c>
-      <c r="J23" t="n">
+      <c r="O23" t="n">
         <v>11.13</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
         <v>91.04000000000001</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
         <v>0.25</v>
       </c>
-      <c r="M23" t="n">
+      <c r="R23" t="n">
         <v>26</v>
       </c>
-      <c r="N23" t="n">
+      <c r="S23" t="n">
         <v>6.38</v>
       </c>
-      <c r="O23" t="n">
+      <c r="T23" t="n">
         <v>0.42</v>
       </c>
-      <c r="P23" t="n">
+      <c r="U23" t="n">
         <v>35</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="V23" t="n">
         <v>12.7</v>
       </c>
-      <c r="R23" t="n">
+      <c r="W23" t="n">
         <v>0.52</v>
       </c>
-      <c r="S23" t="n">
+      <c r="X23" t="n">
         <v>29</v>
       </c>
-      <c r="T23" t="n">
+      <c r="Y23" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U23" t="n">
+      <c r="Z23" t="n">
         <v>0.82</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AA23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB23" t="n">
         <v>23827</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AC23" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4506163.2</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4425696</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AF23" t="n">
         <v>63276</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AG23" t="n">
         <v>52889</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AH23" t="n">
         <v>49714</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
         <v>32904</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AJ23" t="n">
         <v>16148</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AK23" t="n">
         <v>11000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>149</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="24">
@@ -2535,83 +3268,114 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>CFM56-3C-1</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>104500</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
         <v>4.01</v>
       </c>
-      <c r="G24" t="n">
+      <c r="L24" t="n">
         <v>3.76</v>
       </c>
-      <c r="H24" t="n">
+      <c r="M24" t="n">
         <v>36.45</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
         <v>28.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="O24" t="n">
         <v>11.13</v>
       </c>
-      <c r="K24" t="n">
+      <c r="P24" t="n">
         <v>91.04000000000001</v>
       </c>
-      <c r="L24" t="n">
+      <c r="Q24" t="n">
         <v>0.25</v>
       </c>
-      <c r="M24" t="n">
+      <c r="R24" t="n">
         <v>26</v>
       </c>
-      <c r="N24" t="n">
+      <c r="S24" t="n">
         <v>6.38</v>
       </c>
-      <c r="O24" t="n">
+      <c r="T24" t="n">
         <v>0.42</v>
       </c>
-      <c r="P24" t="n">
+      <c r="U24" t="n">
         <v>35</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="V24" t="n">
         <v>12.7</v>
       </c>
-      <c r="R24" t="n">
+      <c r="W24" t="n">
         <v>0.52</v>
       </c>
-      <c r="S24" t="n">
+      <c r="X24" t="n">
         <v>29</v>
       </c>
-      <c r="T24" t="n">
+      <c r="Y24" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U24" t="n">
+      <c r="Z24" t="n">
         <v>0.82</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AA24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB24" t="n">
         <v>23827</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AC24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>4264761.600000001</v>
+      </c>
+      <c r="AE24" t="n">
         <v>4023360</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AF24" t="n">
         <v>68039</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AG24" t="n">
         <v>56245</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AH24" t="n">
         <v>53070</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AI24" t="n">
         <v>33643</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AJ24" t="n">
         <v>19881</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AK24" t="n">
         <v>15000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="25">
@@ -2628,83 +3392,114 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>CFM56-3B-1</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>89400</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
         <v>4.01</v>
       </c>
-      <c r="G25" t="n">
+      <c r="L25" t="n">
         <v>3.76</v>
       </c>
-      <c r="H25" t="n">
+      <c r="M25" t="n">
         <v>31.01</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
         <v>28.88</v>
       </c>
-      <c r="J25" t="n">
+      <c r="O25" t="n">
         <v>11.13</v>
       </c>
-      <c r="K25" t="n">
+      <c r="P25" t="n">
         <v>91.04000000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="Q25" t="n">
         <v>0.25</v>
       </c>
-      <c r="M25" t="n">
+      <c r="R25" t="n">
         <v>26</v>
       </c>
-      <c r="N25" t="n">
+      <c r="S25" t="n">
         <v>6.38</v>
       </c>
-      <c r="O25" t="n">
+      <c r="T25" t="n">
         <v>0.42</v>
       </c>
-      <c r="P25" t="n">
+      <c r="U25" t="n">
         <v>35</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="V25" t="n">
         <v>12.7</v>
       </c>
-      <c r="R25" t="n">
+      <c r="W25" t="n">
         <v>0.52</v>
       </c>
-      <c r="S25" t="n">
+      <c r="X25" t="n">
         <v>29</v>
       </c>
-      <c r="T25" t="n">
+      <c r="Y25" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U25" t="n">
+      <c r="Z25" t="n">
         <v>0.82</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AA25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB25" t="n">
         <v>23827</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AC25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>4747564.8</v>
+      </c>
+      <c r="AE25" t="n">
         <v>4667097.600000001</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AF25" t="n">
         <v>61689</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AG25" t="n">
         <v>49895</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AH25" t="n">
         <v>46720</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AI25" t="n">
         <v>31311</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AJ25" t="n">
         <v>15182</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AK25" t="n">
         <v>10000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>149</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -2721,83 +3516,112 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>100970</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
         <v>4.01</v>
       </c>
-      <c r="G26" t="n">
+      <c r="L26" t="n">
         <v>3.76</v>
       </c>
-      <c r="H26" t="n">
+      <c r="M26" t="n">
         <v>32.18</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
         <v>35.79</v>
       </c>
-      <c r="J26" t="n">
+      <c r="O26" t="n">
         <v>12.57</v>
       </c>
-      <c r="K26" t="n">
+      <c r="P26" t="n">
         <v>124.6</v>
       </c>
-      <c r="L26" t="n">
+      <c r="Q26" t="n">
         <v>0.22</v>
       </c>
-      <c r="M26" t="n">
+      <c r="R26" t="n">
         <v>26</v>
       </c>
-      <c r="N26" t="n">
+      <c r="S26" t="n">
         <v>7.73</v>
       </c>
-      <c r="O26" t="n">
+      <c r="T26" t="n">
         <v>0.22</v>
       </c>
-      <c r="P26" t="n">
+      <c r="U26" t="n">
         <v>30</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="V26" t="n">
         <v>14.35</v>
       </c>
-      <c r="R26" t="n">
+      <c r="W26" t="n">
         <v>0.33</v>
       </c>
-      <c r="S26" t="n">
+      <c r="X26" t="n">
         <v>32</v>
       </c>
-      <c r="T26" t="n">
+      <c r="Y26" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Z26" t="n">
         <v>0.82</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="n">
         <v>26022</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AC26" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>5954572.8</v>
+      </c>
+      <c r="AE26" t="n">
         <v>5391302.4</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AF26" t="n">
         <v>70080</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AG26" t="n">
         <v>58604</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AH26" t="n">
         <v>55202</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AI26" t="n">
         <v>37648</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AJ26" t="n">
         <v>17554</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AK26" t="n">
         <v>11500</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>148</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -2814,83 +3638,112 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>100970</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
         <v>4.01</v>
       </c>
-      <c r="G27" t="n">
+      <c r="L27" t="n">
         <v>3.76</v>
       </c>
-      <c r="H27" t="n">
+      <c r="M27" t="n">
         <v>39.5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="N27" t="n">
         <v>35.79</v>
       </c>
-      <c r="J27" t="n">
+      <c r="O27" t="n">
         <v>12.57</v>
       </c>
-      <c r="K27" t="n">
+      <c r="P27" t="n">
         <v>124.6</v>
       </c>
-      <c r="L27" t="n">
+      <c r="Q27" t="n">
         <v>0.22</v>
       </c>
-      <c r="M27" t="n">
+      <c r="R27" t="n">
         <v>26</v>
       </c>
-      <c r="N27" t="n">
+      <c r="S27" t="n">
         <v>7.72</v>
       </c>
-      <c r="O27" t="n">
+      <c r="T27" t="n">
         <v>0.23</v>
       </c>
-      <c r="P27" t="n">
+      <c r="U27" t="n">
         <v>30</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="V27" t="n">
         <v>14.35</v>
       </c>
-      <c r="R27" t="n">
+      <c r="W27" t="n">
         <v>0.33</v>
       </c>
-      <c r="S27" t="n">
+      <c r="X27" t="n">
         <v>32</v>
       </c>
-      <c r="T27" t="n">
+      <c r="Y27" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Z27" t="n">
         <v>0.82</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="n">
         <v>26022</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AC27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>5471769.600000001</v>
+      </c>
+      <c r="AE27" t="n">
         <v>6517843.2</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AF27" t="n">
         <v>79016</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AG27" t="n">
         <v>66361</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AH27" t="n">
         <v>62732</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AI27" t="n">
         <v>41413</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
         <v>21319</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AK27" t="n">
         <v>10500</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>184</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -2907,83 +3760,112 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>100970</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
         <v>4.01</v>
       </c>
-      <c r="G28" t="n">
+      <c r="L28" t="n">
         <v>3.76</v>
       </c>
-      <c r="H28" t="n">
+      <c r="M28" t="n">
         <v>42.1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="N28" t="n">
         <v>35.79</v>
       </c>
-      <c r="J28" t="n">
+      <c r="O28" t="n">
         <v>12.57</v>
       </c>
-      <c r="K28" t="n">
+      <c r="P28" t="n">
         <v>124.6</v>
       </c>
-      <c r="L28" t="n">
+      <c r="Q28" t="n">
         <v>0.22</v>
       </c>
-      <c r="M28" t="n">
+      <c r="R28" t="n">
         <v>26</v>
       </c>
-      <c r="N28" t="n">
+      <c r="S28" t="n">
         <v>7.66</v>
       </c>
-      <c r="O28" t="n">
+      <c r="T28" t="n">
         <v>0.22</v>
       </c>
-      <c r="P28" t="n">
+      <c r="U28" t="n">
         <v>30</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="V28" t="n">
         <v>14.35</v>
       </c>
-      <c r="R28" t="n">
+      <c r="W28" t="n">
         <v>0.33</v>
       </c>
-      <c r="S28" t="n">
+      <c r="X28" t="n">
         <v>32</v>
       </c>
-      <c r="T28" t="n">
+      <c r="Y28" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U28" t="n">
+      <c r="Z28" t="n">
         <v>0.82</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>26022</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AC28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>4586630.4</v>
+      </c>
+      <c r="AE28" t="n">
         <v>4506163.2</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AF28" t="n">
         <v>79016</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AG28" t="n">
         <v>66814</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AH28" t="n">
         <v>63639</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AI28" t="n">
         <v>42901</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AJ28" t="n">
         <v>20738</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AK28" t="n">
         <v>15000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>52</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="29">
@@ -3000,83 +3882,112 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>CFM56-7B22</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>100970</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
         <v>4.01</v>
       </c>
-      <c r="G29" t="n">
+      <c r="L29" t="n">
         <v>3.76</v>
       </c>
-      <c r="H29" t="n">
+      <c r="M29" t="n">
         <v>42.1</v>
       </c>
-      <c r="I29" t="n">
+      <c r="N29" t="n">
         <v>35.79</v>
       </c>
-      <c r="J29" t="n">
+      <c r="O29" t="n">
         <v>12.57</v>
       </c>
-      <c r="K29" t="n">
+      <c r="P29" t="n">
         <v>124.6</v>
       </c>
-      <c r="L29" t="n">
+      <c r="Q29" t="n">
         <v>0.22</v>
       </c>
-      <c r="M29" t="n">
+      <c r="R29" t="n">
         <v>26</v>
       </c>
-      <c r="N29" t="n">
+      <c r="S29" t="n">
         <v>7.66</v>
       </c>
-      <c r="O29" t="n">
+      <c r="T29" t="n">
         <v>0.22</v>
       </c>
-      <c r="P29" t="n">
+      <c r="U29" t="n">
         <v>30</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="V29" t="n">
         <v>14.35</v>
       </c>
-      <c r="R29" t="n">
+      <c r="W29" t="n">
         <v>0.33</v>
       </c>
-      <c r="S29" t="n">
+      <c r="X29" t="n">
         <v>32</v>
       </c>
-      <c r="T29" t="n">
+      <c r="Y29" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Z29" t="n">
         <v>0.82</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="n">
         <v>29666</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AC29" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6115507.2</v>
+      </c>
+      <c r="AE29" t="n">
         <v>6839712</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AF29" t="n">
         <v>85139</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AG29" t="n">
         <v>71350</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AH29" t="n">
         <v>67721</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AI29" t="n">
         <v>44677</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AJ29" t="n">
         <v>23045</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AK29" t="n">
         <v>10500</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>215</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="30">
@@ -3093,83 +4004,112 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>LEAP-1B28</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>130410</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
         <v>4.01</v>
       </c>
-      <c r="G30" t="n">
+      <c r="L30" t="n">
         <v>3.76</v>
       </c>
-      <c r="H30" t="n">
+      <c r="M30" t="n">
         <v>39.47</v>
       </c>
-      <c r="I30" t="n">
+      <c r="N30" t="n">
         <v>35.92</v>
       </c>
-      <c r="J30" t="n">
+      <c r="O30" t="n">
         <v>12.29</v>
       </c>
-      <c r="K30" t="n">
+      <c r="P30" t="n">
         <v>127</v>
       </c>
-      <c r="L30" t="n">
+      <c r="Q30" t="n">
         <v>0.24</v>
       </c>
-      <c r="M30" t="n">
+      <c r="R30" t="n">
         <v>26.5</v>
       </c>
-      <c r="N30" t="n">
+      <c r="S30" t="n">
         <v>7.73</v>
       </c>
-      <c r="O30" t="n">
+      <c r="T30" t="n">
         <v>0.27</v>
       </c>
-      <c r="P30" t="n">
+      <c r="U30" t="n">
         <v>33.5</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="V30" t="n">
         <v>14.35</v>
       </c>
-      <c r="R30" t="n">
+      <c r="W30" t="n">
         <v>0.2</v>
       </c>
-      <c r="S30" t="n">
+      <c r="X30" t="n">
         <v>30</v>
       </c>
-      <c r="T30" t="n">
+      <c r="Y30" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U30" t="n">
+      <c r="Z30" t="n">
         <v>0.82</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="n">
         <v>25817</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AC30" t="n">
+        <v>2650</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5954572.8</v>
+      </c>
+      <c r="AE30" t="n">
         <v>5552236.8</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AF30" t="n">
         <v>82645</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AG30" t="n">
         <v>69308</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AH30" t="n">
         <v>65952</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AI30" t="n">
         <v>40823</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AJ30" t="n">
         <v>25129</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AK30" t="n">
         <v>21000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -3186,83 +4126,114 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>PW2040</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>181930</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
         <v>4.01</v>
       </c>
-      <c r="G31" t="n">
+      <c r="L31" t="n">
         <v>3.76</v>
       </c>
-      <c r="H31" t="n">
+      <c r="M31" t="n">
         <v>47.32</v>
       </c>
-      <c r="I31" t="n">
+      <c r="N31" t="n">
         <v>38.02</v>
       </c>
-      <c r="J31" t="n">
+      <c r="O31" t="n">
         <v>13.75</v>
       </c>
-      <c r="K31" t="n">
+      <c r="P31" t="n">
         <v>185</v>
       </c>
-      <c r="L31" t="n">
+      <c r="Q31" t="n">
         <v>0.23</v>
       </c>
-      <c r="M31" t="n">
+      <c r="R31" t="n">
         <v>23.5</v>
       </c>
-      <c r="N31" t="n">
+      <c r="S31" t="n">
         <v>8.01</v>
       </c>
-      <c r="O31" t="n">
+      <c r="T31" t="n">
         <v>0.37</v>
       </c>
-      <c r="P31" t="n">
+      <c r="U31" t="n">
         <v>39</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="V31" t="n">
         <v>15.21</v>
       </c>
-      <c r="R31" t="n">
+      <c r="W31" t="n">
         <v>0.36</v>
       </c>
-      <c r="S31" t="n">
+      <c r="X31" t="n">
         <v>31</v>
       </c>
-      <c r="T31" t="n">
+      <c r="Y31" t="n">
         <v>950.076</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Z31" t="n">
         <v>0.86</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AA31" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB31" t="n">
         <v>42680</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AC31" t="n">
+        <v>2450</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6678777.600000001</v>
+      </c>
+      <c r="AE31" t="n">
         <v>6115507.2</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AF31" t="n">
         <v>115893</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AG31" t="n">
         <v>95254</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AH31" t="n">
         <v>90718</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AI31" t="n">
         <v>54431</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AJ31" t="n">
         <v>36287</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AK31" t="n">
         <v>26500</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>239</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="32">
@@ -3279,83 +4250,114 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>JT8D-217</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>92700</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
         <v>3.61</v>
       </c>
-      <c r="G32" t="n">
+      <c r="L32" t="n">
         <v>3.35</v>
       </c>
-      <c r="H32" t="n">
+      <c r="M32" t="n">
         <v>45.02</v>
       </c>
-      <c r="I32" t="n">
+      <c r="N32" t="n">
         <v>32.85</v>
       </c>
-      <c r="J32" t="n">
+      <c r="O32" t="n">
         <v>9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="P32" t="n">
         <v>112.3</v>
       </c>
-      <c r="L32" t="n">
+      <c r="Q32" t="n">
         <v>0.24</v>
       </c>
-      <c r="M32" t="n">
+      <c r="R32" t="n">
         <v>24</v>
       </c>
-      <c r="N32" t="n">
+      <c r="S32" t="n">
         <v>4.59</v>
       </c>
-      <c r="O32" t="n">
+      <c r="T32" t="n">
         <v>0.71</v>
       </c>
-      <c r="P32" t="n">
+      <c r="U32" t="n">
         <v>40</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="V32" t="n">
         <v>12.25</v>
       </c>
-      <c r="R32" t="n">
+      <c r="W32" t="n">
         <v>0.37</v>
       </c>
-      <c r="S32" t="n">
+      <c r="X32" t="n">
         <v>31</v>
       </c>
-      <c r="T32" t="n">
+      <c r="Y32" t="n">
         <v>926</v>
       </c>
-      <c r="U32" t="n">
+      <c r="Z32" t="n">
         <v>0.84</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AA32" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB32" t="n">
         <v>22129</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AC32" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3299155.2</v>
+      </c>
+      <c r="AE32" t="n">
         <v>3283061.76</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AF32" t="n">
         <v>67812</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AG32" t="n">
         <v>58567</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AH32" t="n">
         <v>55338</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AI32" t="n">
         <v>35369</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AJ32" t="n">
         <v>19969</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AK32" t="n">
         <v>14500</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>172</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -3372,83 +4374,114 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>JT8D-217C</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>92700</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
         <v>3.61</v>
       </c>
-      <c r="G33" t="n">
+      <c r="L33" t="n">
         <v>3.35</v>
       </c>
-      <c r="H33" t="n">
+      <c r="M33" t="n">
         <v>39.75</v>
       </c>
-      <c r="I33" t="n">
+      <c r="N33" t="n">
         <v>32.85</v>
       </c>
-      <c r="J33" t="n">
+      <c r="O33" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="K33" t="n">
+      <c r="P33" t="n">
         <v>112.3</v>
       </c>
-      <c r="L33" t="n">
+      <c r="Q33" t="n">
         <v>0.24</v>
       </c>
-      <c r="M33" t="n">
+      <c r="R33" t="n">
         <v>24</v>
       </c>
-      <c r="N33" t="n">
+      <c r="S33" t="n">
         <v>4.59</v>
       </c>
-      <c r="O33" t="n">
+      <c r="T33" t="n">
         <v>0.71</v>
       </c>
-      <c r="P33" t="n">
+      <c r="U33" t="n">
         <v>40</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="V33" t="n">
         <v>12.25</v>
       </c>
-      <c r="R33" t="n">
+      <c r="W33" t="n">
         <v>0.37</v>
       </c>
-      <c r="S33" t="n">
+      <c r="X33" t="n">
         <v>31</v>
       </c>
-      <c r="T33" t="n">
+      <c r="Y33" t="n">
         <v>911.1840000000001</v>
       </c>
-      <c r="U33" t="n">
+      <c r="Z33" t="n">
         <v>0.82</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AA33" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB33" t="n">
         <v>22126</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AC33" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3862425.6</v>
+      </c>
+      <c r="AE33" t="n">
         <v>3830238.72</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AF33" t="n">
         <v>63503</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AG33" t="n">
         <v>58060</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AH33" t="n">
         <v>50802</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AI33" t="n">
         <v>33236</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AJ33" t="n">
         <v>17566</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AK33" t="n">
         <v>13000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>139</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -3465,83 +4498,112 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>CF6-80C2B1F</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>254260</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
         <v>8.33</v>
       </c>
-      <c r="G34" t="n">
+      <c r="L34" t="n">
         <v>6.5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="M34" t="n">
         <v>70.67</v>
       </c>
-      <c r="I34" t="n">
+      <c r="N34" t="n">
         <v>64.44</v>
       </c>
-      <c r="J34" t="n">
+      <c r="O34" t="n">
         <v>19.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="P34" t="n">
         <v>525</v>
       </c>
-      <c r="L34" t="n">
+      <c r="Q34" t="n">
         <v>0.25</v>
       </c>
-      <c r="M34" t="n">
+      <c r="R34" t="n">
         <v>38</v>
       </c>
-      <c r="N34" t="n">
+      <c r="S34" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="O34" t="n">
+      <c r="T34" t="n">
         <v>0.34</v>
       </c>
-      <c r="P34" t="n">
+      <c r="U34" t="n">
         <v>44</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="V34" t="n">
         <v>22.17</v>
       </c>
-      <c r="R34" t="n">
+      <c r="W34" t="n">
         <v>0.26</v>
       </c>
-      <c r="S34" t="n">
+      <c r="X34" t="n">
         <v>37</v>
       </c>
-      <c r="T34" t="n">
+      <c r="Y34" t="n">
         <v>1018.6</v>
       </c>
-      <c r="U34" t="n">
+      <c r="Z34" t="n">
         <v>0.92</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="n">
         <v>215991</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AC34" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11506809.6</v>
+      </c>
+      <c r="AE34" t="n">
         <v>11426342.4</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AF34" t="n">
         <v>396894</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AG34" t="n">
         <v>285764</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AH34" t="n">
         <v>256280</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AI34" t="n">
         <v>182753</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AJ34" t="n">
         <v>73527</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AK34" t="n">
         <v>40000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>660</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="35">
@@ -3558,83 +4620,112 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>CF6-80C2B5F</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>267000</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
         <v>8.33</v>
       </c>
-      <c r="G35" t="n">
+      <c r="L35" t="n">
         <v>6.5</v>
       </c>
-      <c r="H35" t="n">
+      <c r="M35" t="n">
         <v>70.67</v>
       </c>
-      <c r="I35" t="n">
+      <c r="N35" t="n">
         <v>64.44</v>
       </c>
-      <c r="J35" t="n">
+      <c r="O35" t="n">
         <v>19.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
         <v>525</v>
       </c>
-      <c r="L35" t="n">
+      <c r="Q35" t="n">
         <v>0.25</v>
       </c>
-      <c r="M35" t="n">
+      <c r="R35" t="n">
         <v>38</v>
       </c>
-      <c r="N35" t="n">
+      <c r="S35" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="O35" t="n">
+      <c r="T35" t="n">
         <v>0.34</v>
       </c>
-      <c r="P35" t="n">
+      <c r="U35" t="n">
         <v>44</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="V35" t="n">
         <v>22.17</v>
       </c>
-      <c r="R35" t="n">
+      <c r="W35" t="n">
         <v>0.26</v>
       </c>
-      <c r="S35" t="n">
+      <c r="X35" t="n">
         <v>37</v>
       </c>
-      <c r="T35" t="n">
+      <c r="Y35" t="n">
         <v>1018.6</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Z35" t="n">
         <v>0.92</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
         <v>240196</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AC35" t="n">
+        <v>6200</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12794284.8</v>
+      </c>
+      <c r="AE35" t="n">
         <v>12713817.6</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AF35" t="n">
         <v>412770</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AG35" t="n">
         <v>302093</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AH35" t="n">
         <v>277145</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AI35" t="n">
         <v>164382</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AJ35" t="n">
         <v>112763</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AK35" t="n">
         <v>55500</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>660</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="36">
@@ -3651,83 +4742,114 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>RB211-524H</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>269560</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
         <v>5.41</v>
       </c>
-      <c r="G36" t="n">
+      <c r="L36" t="n">
         <v>5.03</v>
       </c>
-      <c r="H36" t="n">
+      <c r="M36" t="n">
         <v>54.94</v>
       </c>
-      <c r="I36" t="n">
+      <c r="N36" t="n">
         <v>47.57</v>
       </c>
-      <c r="J36" t="n">
+      <c r="O36" t="n">
         <v>15.85</v>
       </c>
-      <c r="K36" t="n">
+      <c r="P36" t="n">
         <v>283.3</v>
       </c>
-      <c r="L36" t="n">
+      <c r="Q36" t="n">
         <v>0.21</v>
       </c>
-      <c r="M36" t="n">
+      <c r="R36" t="n">
         <v>30.5</v>
       </c>
-      <c r="N36" t="n">
+      <c r="S36" t="n">
         <v>9.52</v>
       </c>
-      <c r="O36" t="n">
+      <c r="T36" t="n">
         <v>0.31</v>
       </c>
-      <c r="P36" t="n">
+      <c r="U36" t="n">
         <v>38.5</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="V36" t="n">
         <v>18.62</v>
       </c>
-      <c r="R36" t="n">
+      <c r="W36" t="n">
         <v>0.26</v>
       </c>
-      <c r="S36" t="n">
+      <c r="X36" t="n">
         <v>31</v>
       </c>
-      <c r="T36" t="n">
+      <c r="Y36" t="n">
         <v>955.6320000000001</v>
       </c>
-      <c r="U36" t="n">
+      <c r="Z36" t="n">
         <v>0.86</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AA36" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB36" t="n">
         <v>63216</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AC36" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6276441.600000001</v>
+      </c>
+      <c r="AE36" t="n">
         <v>6920179.2</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AF36" t="n">
         <v>158758</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AG36" t="n">
         <v>136078</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AH36" t="n">
         <v>126099</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AI36" t="n">
         <v>86069</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AJ36" t="n">
         <v>40230</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AK36" t="n">
         <v>20500</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -3744,83 +4866,114 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>RB211-524H</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>269560</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
         <v>5.41</v>
       </c>
-      <c r="G37" t="n">
+      <c r="L37" t="n">
         <v>5.03</v>
       </c>
-      <c r="H37" t="n">
+      <c r="M37" t="n">
         <v>54.94</v>
       </c>
-      <c r="I37" t="n">
+      <c r="N37" t="n">
         <v>47.57</v>
       </c>
-      <c r="J37" t="n">
+      <c r="O37" t="n">
         <v>15.85</v>
       </c>
-      <c r="K37" t="n">
+      <c r="P37" t="n">
         <v>283.3</v>
       </c>
-      <c r="L37" t="n">
+      <c r="Q37" t="n">
         <v>0.21</v>
       </c>
-      <c r="M37" t="n">
+      <c r="R37" t="n">
         <v>30.5</v>
       </c>
-      <c r="N37" t="n">
+      <c r="S37" t="n">
         <v>9.52</v>
       </c>
-      <c r="O37" t="n">
+      <c r="T37" t="n">
         <v>0.31</v>
       </c>
-      <c r="P37" t="n">
+      <c r="U37" t="n">
         <v>38.5</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="V37" t="n">
         <v>18.62</v>
       </c>
-      <c r="R37" t="n">
+      <c r="W37" t="n">
         <v>0.26</v>
       </c>
-      <c r="S37" t="n">
+      <c r="X37" t="n">
         <v>31</v>
       </c>
-      <c r="T37" t="n">
+      <c r="Y37" t="n">
         <v>955.6320000000001</v>
       </c>
-      <c r="U37" t="n">
+      <c r="Z37" t="n">
         <v>0.86</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AA37" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB37" t="n">
         <v>91380</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AC37" t="n">
+        <v>4100</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>9816998.4</v>
+      </c>
+      <c r="AE37" t="n">
         <v>10299801.6</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AF37" t="n">
         <v>186880</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AG37" t="n">
         <v>145150</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AH37" t="n">
         <v>133810</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AI37" t="n">
         <v>90011</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AJ37" t="n">
         <v>43799</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AK37" t="n">
         <v>21000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -3837,83 +4990,112 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>GE90-94B</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>432810</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
         <v>6.19</v>
       </c>
-      <c r="G38" t="n">
+      <c r="L38" t="n">
         <v>6.19</v>
       </c>
-      <c r="H38" t="n">
+      <c r="M38" t="n">
         <v>63.73</v>
       </c>
-      <c r="I38" t="n">
+      <c r="N38" t="n">
         <v>60.93</v>
       </c>
-      <c r="J38" t="n">
+      <c r="O38" t="n">
         <v>18.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="P38" t="n">
         <v>427.8</v>
       </c>
-      <c r="L38" t="n">
+      <c r="Q38" t="n">
         <v>0.16</v>
       </c>
-      <c r="M38" t="n">
+      <c r="R38" t="n">
         <v>30</v>
       </c>
-      <c r="N38" t="n">
+      <c r="S38" t="n">
         <v>10.74</v>
       </c>
-      <c r="O38" t="n">
+      <c r="T38" t="n">
         <v>0.285</v>
       </c>
-      <c r="P38" t="n">
+      <c r="U38" t="n">
         <v>37.5</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="V38" t="n">
         <v>21.53</v>
       </c>
-      <c r="R38" t="n">
+      <c r="W38" t="n">
         <v>0.38</v>
       </c>
-      <c r="S38" t="n">
+      <c r="X38" t="n">
         <v>32.5</v>
       </c>
-      <c r="T38" t="n">
+      <c r="Y38" t="n">
         <v>966.744</v>
       </c>
-      <c r="U38" t="n">
+      <c r="Z38" t="n">
         <v>0.87</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="n">
         <v>117300</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AC38" t="n">
+        <v>3300</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8046720</v>
+      </c>
+      <c r="AE38" t="n">
         <v>10380268.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AF38" t="n">
         <v>247207</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AG38" t="n">
         <v>201848</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AH38" t="n">
         <v>190508</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AI38" t="n">
         <v>135850</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AJ38" t="n">
         <v>54620</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AK38" t="n">
         <v>17500</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="39">
@@ -3930,83 +5112,112 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>GE90-94B</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>432210</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
         <v>6.19</v>
       </c>
-      <c r="G39" t="n">
+      <c r="L39" t="n">
         <v>6.19</v>
       </c>
-      <c r="H39" t="n">
+      <c r="M39" t="n">
         <v>63.73</v>
       </c>
-      <c r="I39" t="n">
+      <c r="N39" t="n">
         <v>60.93</v>
       </c>
-      <c r="J39" t="n">
+      <c r="O39" t="n">
         <v>18.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="P39" t="n">
         <v>427.8</v>
       </c>
-      <c r="L39" t="n">
+      <c r="Q39" t="n">
         <v>0.16</v>
       </c>
-      <c r="M39" t="n">
+      <c r="R39" t="n">
         <v>30</v>
       </c>
-      <c r="N39" t="n">
+      <c r="S39" t="n">
         <v>10.74</v>
       </c>
-      <c r="O39" t="n">
+      <c r="T39" t="n">
         <v>0.285</v>
       </c>
-      <c r="P39" t="n">
+      <c r="U39" t="n">
         <v>37.5</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="V39" t="n">
         <v>21.53</v>
       </c>
-      <c r="R39" t="n">
+      <c r="W39" t="n">
         <v>0.38</v>
       </c>
-      <c r="S39" t="n">
+      <c r="X39" t="n">
         <v>32.5</v>
       </c>
-      <c r="T39" t="n">
+      <c r="Y39" t="n">
         <v>966.744</v>
       </c>
-      <c r="U39" t="n">
+      <c r="Z39" t="n">
         <v>0.87</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="n">
         <v>171100</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AC39" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>12552883.2</v>
+      </c>
+      <c r="AE39" t="n">
         <v>13920825.6</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AF39" t="n">
         <v>297556</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AG39" t="n">
         <v>213188</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AH39" t="n">
         <v>200487</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AI39" t="n">
         <v>138100</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AJ39" t="n">
         <v>56940</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AK39" t="n">
         <v>22000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="40">
@@ -4023,83 +5234,112 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>GE90-115BL1</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>513950.0000000001</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
         <v>6.19</v>
       </c>
-      <c r="G40" t="n">
+      <c r="L40" t="n">
         <v>6.19</v>
       </c>
-      <c r="H40" t="n">
+      <c r="M40" t="n">
         <v>73.86</v>
       </c>
-      <c r="I40" t="n">
+      <c r="N40" t="n">
         <v>64.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="O40" t="n">
         <v>18.5</v>
       </c>
-      <c r="K40" t="n">
+      <c r="P40" t="n">
         <v>427.8</v>
       </c>
-      <c r="L40" t="n">
+      <c r="Q40" t="n">
         <v>0.14</v>
       </c>
-      <c r="M40" t="n">
+      <c r="R40" t="n">
         <v>30</v>
       </c>
-      <c r="N40" t="n">
+      <c r="S40" t="n">
         <v>10.26</v>
       </c>
-      <c r="O40" t="n">
+      <c r="T40" t="n">
         <v>0.275</v>
       </c>
-      <c r="P40" t="n">
+      <c r="U40" t="n">
         <v>36</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="V40" t="n">
         <v>21.53</v>
       </c>
-      <c r="R40" t="n">
+      <c r="W40" t="n">
         <v>0.36</v>
       </c>
-      <c r="S40" t="n">
+      <c r="X40" t="n">
         <v>33</v>
       </c>
-      <c r="T40" t="n">
+      <c r="Y40" t="n">
         <v>988.9680000000001</v>
       </c>
-      <c r="U40" t="n">
+      <c r="Z40" t="n">
         <v>0.89</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="n">
         <v>181283</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AC40" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>10299801.6</v>
+      </c>
+      <c r="AE40" t="n">
         <v>12633350.4</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AF40" t="n">
         <v>351535</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AG40" t="n">
         <v>251290</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AH40" t="n">
         <v>237683</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AI40" t="n">
         <v>167829</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AJ40" t="n">
         <v>69853</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AK40" t="n">
         <v>44000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>213.8</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>550</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>442</v>
       </c>
     </row>
     <row r="41">
@@ -4116,83 +5356,112 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>GEnx-1B70</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>255300</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
         <v>5.94</v>
       </c>
-      <c r="G41" t="n">
+      <c r="L41" t="n">
         <v>5.77</v>
       </c>
-      <c r="H41" t="n">
+      <c r="M41" t="n">
         <v>56.72</v>
       </c>
-      <c r="I41" t="n">
+      <c r="N41" t="n">
         <v>60.12</v>
       </c>
-      <c r="J41" t="n">
+      <c r="O41" t="n">
         <v>16.92</v>
       </c>
-      <c r="K41" t="n">
+      <c r="P41" t="n">
         <v>377</v>
       </c>
-      <c r="L41" t="n">
+      <c r="Q41" t="n">
         <v>0.195</v>
       </c>
-      <c r="M41" t="n">
+      <c r="R41" t="n">
         <v>31</v>
       </c>
-      <c r="N41" t="n">
+      <c r="S41" t="n">
         <v>9.83</v>
       </c>
-      <c r="O41" t="n">
+      <c r="T41" t="n">
         <v>0.31</v>
       </c>
-      <c r="P41" t="n">
+      <c r="U41" t="n">
         <v>39</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="V41" t="n">
         <v>19.81</v>
       </c>
-      <c r="R41" t="n">
+      <c r="W41" t="n">
         <v>0.265</v>
       </c>
-      <c r="S41" t="n">
+      <c r="X41" t="n">
         <v>36.5</v>
       </c>
-      <c r="T41" t="n">
+      <c r="Y41" t="n">
         <v>998.2280000000001</v>
       </c>
-      <c r="U41" t="n">
+      <c r="Z41" t="n">
         <v>0.9</v>
       </c>
-      <c r="V41" t="n">
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="n">
         <v>126206</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AC41" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12552883.2</v>
+      </c>
+      <c r="AE41" t="n">
         <v>15288768</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AF41" t="n">
         <v>227930</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AG41" t="n">
         <v>172365</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AH41" t="n">
         <v>161025</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AI41" t="n">
         <v>117934</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AJ41" t="n">
         <v>43091</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AK41" t="n">
         <v>9000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>381</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="42">
@@ -4209,83 +5478,112 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>GEnx-1B70</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>255300</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
         <v>5.94</v>
       </c>
-      <c r="G42" t="n">
+      <c r="L42" t="n">
         <v>5.77</v>
       </c>
-      <c r="H42" t="n">
+      <c r="M42" t="n">
         <v>62.81</v>
       </c>
-      <c r="I42" t="n">
+      <c r="N42" t="n">
         <v>60.12</v>
       </c>
-      <c r="J42" t="n">
+      <c r="O42" t="n">
         <v>17.02</v>
       </c>
-      <c r="K42" t="n">
+      <c r="P42" t="n">
         <v>377</v>
       </c>
-      <c r="L42" t="n">
+      <c r="Q42" t="n">
         <v>0.21</v>
       </c>
-      <c r="M42" t="n">
+      <c r="R42" t="n">
         <v>31</v>
       </c>
-      <c r="N42" t="n">
+      <c r="S42" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="O42" t="n">
+      <c r="T42" t="n">
         <v>0.285</v>
       </c>
-      <c r="P42" t="n">
+      <c r="U42" t="n">
         <v>39</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="V42" t="n">
         <v>19.81</v>
       </c>
-      <c r="R42" t="n">
+      <c r="W42" t="n">
         <v>0.265</v>
       </c>
-      <c r="S42" t="n">
+      <c r="X42" t="n">
         <v>36.5</v>
       </c>
-      <c r="T42" t="n">
+      <c r="Y42" t="n">
         <v>998.2280000000001</v>
       </c>
-      <c r="U42" t="n">
+      <c r="Z42" t="n">
         <v>0.9</v>
       </c>
-      <c r="V42" t="n">
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="n">
         <v>126356</v>
       </c>
-      <c r="W42" t="n">
+      <c r="AC42" t="n">
+        <v>5250</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13035686.4</v>
+      </c>
+      <c r="AE42" t="n">
         <v>13277088</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AF42" t="n">
         <v>254011</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AG42" t="n">
         <v>192776</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AH42" t="n">
         <v>181436</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AI42" t="n">
         <v>127005</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AJ42" t="n">
         <v>54431</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AK42" t="n">
         <v>25000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>406</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="43">
@@ -4302,83 +5600,112 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>GEnx-1B76</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>339000</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>5.94</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>5.77</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="n">
         <v>68.3</v>
       </c>
-      <c r="I43" t="n">
+      <c r="N43" t="n">
         <v>60.12</v>
       </c>
-      <c r="J43" t="n">
+      <c r="O43" t="n">
         <v>17.02</v>
       </c>
-      <c r="K43" t="n">
+      <c r="P43" t="n">
         <v>360.5</v>
       </c>
-      <c r="L43" t="n">
+      <c r="Q43" t="n">
         <v>0.21</v>
       </c>
-      <c r="M43" t="n">
+      <c r="R43" t="n">
         <v>31</v>
       </c>
-      <c r="N43" t="n">
+      <c r="S43" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="O43" t="n">
+      <c r="T43" t="n">
         <v>0.3</v>
       </c>
-      <c r="P43" t="n">
+      <c r="U43" t="n">
         <v>39.5</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="V43" t="n">
         <v>19.81</v>
       </c>
-      <c r="R43" t="n">
+      <c r="W43" t="n">
         <v>0.29</v>
       </c>
-      <c r="S43" t="n">
+      <c r="X43" t="n">
         <v>33.5</v>
       </c>
-      <c r="T43" t="n">
+      <c r="Y43" t="n">
         <v>998.2280000000001</v>
       </c>
-      <c r="U43" t="n">
+      <c r="Z43" t="n">
         <v>0.9</v>
       </c>
-      <c r="V43" t="n">
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="n">
         <v>126356</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AC43" t="n">
+        <v>4300</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>10782604.8</v>
+      </c>
+      <c r="AE43" t="n">
         <v>13035686.4</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AF43" t="n">
         <v>254011</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AG43" t="n">
         <v>201848</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AH43" t="n">
         <v>192776</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AI43" t="n">
         <v>136077</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AJ43" t="n">
         <v>56699</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AK43" t="n">
         <v>16500</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="44">
@@ -4395,83 +5722,116 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>CF34-3B1</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>41010</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
         <v>2.64</v>
       </c>
-      <c r="G44" t="n">
+      <c r="L44" t="n">
         <v>2.69</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="n">
         <v>26.77</v>
       </c>
-      <c r="I44" t="n">
+      <c r="N44" t="n">
         <v>21.23</v>
       </c>
-      <c r="J44" t="n">
+      <c r="O44" t="n">
         <v>6.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="P44" t="n">
         <v>54.54</v>
       </c>
-      <c r="L44" t="n">
+      <c r="Q44" t="n">
         <v>0.32</v>
       </c>
-      <c r="M44" t="n">
+      <c r="R44" t="n">
         <v>24.5</v>
       </c>
-      <c r="N44" t="n">
+      <c r="S44" t="n">
         <v>3.46</v>
       </c>
-      <c r="O44" t="n">
+      <c r="T44" t="n">
         <v>0.67</v>
       </c>
-      <c r="P44" t="n">
+      <c r="U44" t="n">
         <v>42</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="V44" t="n">
         <v>6.2</v>
       </c>
-      <c r="R44" t="n">
+      <c r="W44" t="n">
         <v>0.46</v>
       </c>
-      <c r="S44" t="n">
+      <c r="X44" t="n">
         <v>31</v>
       </c>
-      <c r="T44" t="n">
+      <c r="Y44" t="n">
         <v>938.9640000000001</v>
       </c>
-      <c r="U44" t="n">
+      <c r="Z44" t="n">
         <v>0.85</v>
       </c>
-      <c r="V44" t="n">
+      <c r="AA44" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB44" t="n">
         <v>8082</v>
       </c>
-      <c r="W44" t="n">
+      <c r="AC44" t="n">
+        <v>1130</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2945099.52</v>
+      </c>
+      <c r="AE44" t="n">
         <v>3331342.08</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AF44" t="n">
         <v>24041</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AG44" t="n">
         <v>21319</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AH44" t="n">
         <v>19958</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AI44" t="n">
         <v>13835</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AJ44" t="n">
         <v>6124</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AK44" t="n">
         <v>4300</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -4488,83 +5848,116 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>CF34-8C1</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>61340</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J45" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.69</v>
       </c>
-      <c r="G45" t="n">
+      <c r="L45" t="n">
         <v>2.69</v>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="n">
         <v>32.3</v>
       </c>
-      <c r="I45" t="n">
+      <c r="N45" t="n">
         <v>23.25</v>
       </c>
-      <c r="J45" t="n">
+      <c r="O45" t="n">
         <v>7.51</v>
       </c>
-      <c r="K45" t="n">
+      <c r="P45" t="n">
         <v>70.61</v>
       </c>
-      <c r="L45" t="n">
+      <c r="Q45" t="n">
         <v>0.26</v>
       </c>
-      <c r="M45" t="n">
+      <c r="R45" t="n">
         <v>26.5</v>
       </c>
-      <c r="N45" t="n">
+      <c r="S45" t="n">
         <v>3.61</v>
       </c>
-      <c r="O45" t="n">
+      <c r="T45" t="n">
         <v>0.67</v>
       </c>
-      <c r="P45" t="n">
+      <c r="U45" t="n">
         <v>39</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="V45" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="R45" t="n">
+      <c r="W45" t="n">
         <v>0.42</v>
       </c>
-      <c r="S45" t="n">
+      <c r="X45" t="n">
         <v>29</v>
       </c>
-      <c r="T45" t="n">
+      <c r="Y45" t="n">
         <v>938.9640000000001</v>
       </c>
-      <c r="U45" t="n">
+      <c r="Z45" t="n">
         <v>0.85</v>
       </c>
-      <c r="V45" t="n">
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="n">
         <v>10989</v>
       </c>
-      <c r="W45" t="n">
+      <c r="AC45" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3186501.12</v>
+      </c>
+      <c r="AE45" t="n">
         <v>3669304.32</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AF45" t="n">
         <v>34019</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AG45" t="n">
         <v>30391</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AH45" t="n">
         <v>28260</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AI45" t="n">
         <v>20070</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AJ45" t="n">
         <v>8190</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AK45" t="n">
         <v>5580</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -4581,83 +5974,116 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>CF34-8C5</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>64540.00000000001</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.69</v>
       </c>
-      <c r="G46" t="n">
+      <c r="L46" t="n">
         <v>2.69</v>
       </c>
-      <c r="H46" t="n">
+      <c r="M46" t="n">
         <v>36.24</v>
       </c>
-      <c r="I46" t="n">
+      <c r="N46" t="n">
         <v>23.24</v>
       </c>
-      <c r="J46" t="n">
+      <c r="O46" t="n">
         <v>7.35</v>
       </c>
-      <c r="K46" t="n">
+      <c r="P46" t="n">
         <v>71.06999999999999</v>
       </c>
-      <c r="L46" t="n">
+      <c r="Q46" t="n">
         <v>0.25</v>
       </c>
-      <c r="M46" t="n">
+      <c r="R46" t="n">
         <v>26</v>
       </c>
-      <c r="N46" t="n">
+      <c r="S46" t="n">
         <v>3.28</v>
       </c>
-      <c r="O46" t="n">
+      <c r="T46" t="n">
         <v>0.66</v>
       </c>
-      <c r="P46" t="n">
+      <c r="U46" t="n">
         <v>38.5</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="V46" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="R46" t="n">
+      <c r="W46" t="n">
         <v>0.47</v>
       </c>
-      <c r="S46" t="n">
+      <c r="X46" t="n">
         <v>28.5</v>
       </c>
-      <c r="T46" t="n">
+      <c r="Y46" t="n">
         <v>938.9640000000001</v>
       </c>
-      <c r="U46" t="n">
+      <c r="Z46" t="n">
         <v>0.85</v>
       </c>
-      <c r="V46" t="n">
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="n">
         <v>10861</v>
       </c>
-      <c r="W46" t="n">
+      <c r="AC46" t="n">
+        <v>1320</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3196157.184</v>
+      </c>
+      <c r="AE46" t="n">
         <v>3186501.12</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AF46" t="n">
         <v>38329</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AG46" t="n">
         <v>33340</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AH46" t="n">
         <v>32092</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AI46" t="n">
         <v>21845</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AJ46" t="n">
         <v>10247</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AK46" t="n">
         <v>7800</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -4674,81 +6100,112 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>PW121</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
         <v>2.57</v>
       </c>
-      <c r="G47" t="n">
+      <c r="L47" t="n">
         <v>2.69</v>
       </c>
-      <c r="H47" t="n">
+      <c r="M47" t="n">
         <v>22.25</v>
       </c>
-      <c r="I47" t="n">
+      <c r="N47" t="n">
         <v>25.91</v>
       </c>
-      <c r="J47" t="n">
+      <c r="O47" t="n">
         <v>7.49</v>
       </c>
-      <c r="K47" t="n">
+      <c r="P47" t="n">
         <v>54.35</v>
       </c>
-      <c r="L47" t="n">
+      <c r="Q47" t="n">
         <v>0.5118110236220472</v>
       </c>
-      <c r="M47" t="n">
+      <c r="R47" t="n">
         <v>2.4</v>
       </c>
-      <c r="N47" t="n">
+      <c r="S47" t="n">
         <v>4.04</v>
       </c>
-      <c r="O47" t="n">
+      <c r="T47" t="n">
         <v>0.735</v>
       </c>
-      <c r="P47" t="n">
+      <c r="U47" t="n">
         <v>29</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="V47" t="n">
         <v>7.93</v>
       </c>
-      <c r="R47" t="n">
+      <c r="W47" t="n">
         <v>0.74</v>
       </c>
-      <c r="S47" t="n">
+      <c r="X47" t="n">
         <v>6.6</v>
       </c>
-      <c r="T47" t="n">
+      <c r="Y47" t="n">
         <v>550.044</v>
       </c>
-      <c r="U47" t="n">
+      <c r="Z47" t="n">
         <v>0.47</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="n">
         <v>5703</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AC47" t="n">
+        <v>640</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1448409.6</v>
+      </c>
+      <c r="AE47" t="n">
         <v>4152107.52</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AF47" t="n">
         <v>16566</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AG47" t="n">
         <v>15377</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AH47" t="n">
         <v>14515</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AI47" t="n">
         <v>10350</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AJ47" t="n">
         <v>4165</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AK47" t="n">
         <v>700</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -4765,81 +6222,112 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>PW123</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
         <v>2.57</v>
       </c>
-      <c r="G48" t="n">
+      <c r="L48" t="n">
         <v>2.69</v>
       </c>
-      <c r="H48" t="n">
+      <c r="M48" t="n">
         <v>25.68</v>
       </c>
-      <c r="I48" t="n">
+      <c r="N48" t="n">
         <v>27.43</v>
       </c>
-      <c r="J48" t="n">
+      <c r="O48" t="n">
         <v>7.49</v>
       </c>
-      <c r="K48" t="n">
+      <c r="P48" t="n">
         <v>56.1</v>
       </c>
-      <c r="L48" t="n">
+      <c r="Q48" t="n">
         <v>0.4645669291338582</v>
       </c>
-      <c r="M48" t="n">
+      <c r="R48" t="n">
         <v>2.9</v>
       </c>
-      <c r="N48" t="n">
+      <c r="S48" t="n">
         <v>4.04</v>
       </c>
-      <c r="O48" t="n">
+      <c r="T48" t="n">
         <v>0.74</v>
       </c>
-      <c r="P48" t="n">
+      <c r="U48" t="n">
         <v>29</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="V48" t="n">
         <v>7.92</v>
       </c>
-      <c r="R48" t="n">
+      <c r="W48" t="n">
         <v>0.74</v>
       </c>
-      <c r="S48" t="n">
+      <c r="X48" t="n">
         <v>5.7</v>
       </c>
-      <c r="T48" t="n">
+      <c r="Y48" t="n">
         <v>579.676</v>
       </c>
-      <c r="U48" t="n">
+      <c r="Z48" t="n">
         <v>0.5</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="n">
         <v>5703</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AC48" t="n">
+        <v>370</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2092147.2</v>
+      </c>
+      <c r="AE48" t="n">
         <v>3379622.4</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AF48" t="n">
         <v>19505</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AG48" t="n">
         <v>19051</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AH48" t="n">
         <v>17920</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AI48" t="n">
         <v>11630</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AJ48" t="n">
         <v>6290</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AK48" t="n">
         <v>3100</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>56</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -4856,81 +6344,114 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>PW150A</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J49" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.57</v>
       </c>
-      <c r="G49" t="n">
+      <c r="L49" t="n">
         <v>2.96</v>
       </c>
-      <c r="H49" t="n">
+      <c r="M49" t="n">
         <v>32.8</v>
       </c>
-      <c r="I49" t="n">
+      <c r="N49" t="n">
         <v>28.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="O49" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="K49" t="n">
+      <c r="P49" t="n">
         <v>63.1</v>
       </c>
-      <c r="L49" t="n">
+      <c r="Q49" t="n">
         <v>0.38</v>
       </c>
-      <c r="M49" t="n">
+      <c r="R49" t="n">
         <v>3.1</v>
       </c>
-      <c r="N49" t="n">
+      <c r="S49" t="n">
         <v>4.73</v>
       </c>
-      <c r="O49" t="n">
+      <c r="T49" t="n">
         <v>0.745</v>
       </c>
-      <c r="P49" t="n">
+      <c r="U49" t="n">
         <v>40</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="V49" t="n">
         <v>9.27</v>
       </c>
-      <c r="R49" t="n">
+      <c r="W49" t="n">
         <v>0.71</v>
       </c>
-      <c r="S49" t="n">
+      <c r="X49" t="n">
         <v>5.5</v>
       </c>
-      <c r="T49" t="n">
+      <c r="Y49" t="n">
         <v>688.9440000000001</v>
       </c>
-      <c r="U49" t="n">
+      <c r="Z49" t="n">
         <v>0.6</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="n">
         <v>6526</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AC49" t="n">
+        <v>750</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2301361.92</v>
+      </c>
+      <c r="AE49" t="n">
         <v>2462296.32</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AF49" t="n">
         <v>29574</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AG49" t="n">
         <v>28123</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AH49" t="n">
         <v>26308</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AI49" t="n">
         <v>17819</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AJ49" t="n">
         <v>8489</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AK49" t="n">
         <v>6500</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -4947,81 +6468,112 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>PW118</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
         <v>2.28</v>
       </c>
-      <c r="G50" t="n">
+      <c r="L50" t="n">
         <v>2.28</v>
       </c>
-      <c r="H50" t="n">
+      <c r="M50" t="n">
         <v>20</v>
       </c>
-      <c r="I50" t="n">
+      <c r="N50" t="n">
         <v>19.78</v>
       </c>
-      <c r="J50" t="n">
+      <c r="O50" t="n">
         <v>6.35</v>
       </c>
-      <c r="K50" t="n">
+      <c r="P50" t="n">
         <v>39.43</v>
       </c>
-      <c r="L50" t="n">
+      <c r="Q50" t="n">
         <v>0.545</v>
       </c>
-      <c r="M50" t="n">
+      <c r="R50" t="n">
         <v>3.5</v>
       </c>
-      <c r="N50" t="n">
+      <c r="S50" t="n">
         <v>3.21</v>
       </c>
-      <c r="O50" t="n">
+      <c r="T50" t="n">
         <v>0.62</v>
       </c>
-      <c r="P50" t="n">
+      <c r="U50" t="n">
         <v>33</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="V50" t="n">
         <v>6.94</v>
       </c>
-      <c r="R50" t="n">
+      <c r="W50" t="n">
         <v>0.67</v>
       </c>
-      <c r="S50" t="n">
+      <c r="X50" t="n">
         <v>17</v>
       </c>
-      <c r="T50" t="n">
+      <c r="Y50" t="n">
         <v>605.604</v>
       </c>
-      <c r="U50" t="n">
+      <c r="Z50" t="n">
         <v>0.52</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AA50" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB50" t="n">
         <v>3312</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AC50" t="n">
+        <v>310</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1367942.4</v>
+      </c>
+      <c r="AE50" t="n">
         <v>2446202.88</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AF50" t="n">
         <v>11990</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AG50" t="n">
         <v>11700</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AH50" t="n">
         <v>10900</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AI50" t="n">
         <v>7628</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AJ50" t="n">
         <v>3272</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AK50" t="n">
         <v>1780</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -5038,83 +6590,114 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>AE3007 A1/1</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>33710</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
         <v>2.28</v>
       </c>
-      <c r="G51" t="n">
+      <c r="L51" t="n">
         <v>2.28</v>
       </c>
-      <c r="H51" t="n">
+      <c r="M51" t="n">
         <v>29.87</v>
       </c>
-      <c r="I51" t="n">
+      <c r="N51" t="n">
         <v>20.04</v>
       </c>
-      <c r="J51" t="n">
+      <c r="O51" t="n">
         <v>6.75</v>
       </c>
-      <c r="K51" t="n">
+      <c r="P51" t="n">
         <v>51.18</v>
       </c>
-      <c r="L51" t="n">
+      <c r="Q51" t="n">
         <v>0.25</v>
       </c>
-      <c r="M51" t="n">
+      <c r="R51" t="n">
         <v>21.5</v>
       </c>
-      <c r="N51" t="n">
+      <c r="S51" t="n">
         <v>3.34</v>
       </c>
-      <c r="O51" t="n">
+      <c r="T51" t="n">
         <v>0.62</v>
       </c>
-      <c r="P51" t="n">
+      <c r="U51" t="n">
         <v>30.5</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="V51" t="n">
         <v>7.55</v>
       </c>
-      <c r="R51" t="n">
+      <c r="W51" t="n">
         <v>0.6</v>
       </c>
-      <c r="S51" t="n">
+      <c r="X51" t="n">
         <v>19.5</v>
       </c>
-      <c r="T51" t="n">
+      <c r="Y51" t="n">
         <v>872.292</v>
       </c>
-      <c r="U51" t="n">
+      <c r="Z51" t="n">
         <v>0.78</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AA51" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB51" t="n">
         <v>5146</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AC51" t="n">
+        <v>950</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1947306.24</v>
+      </c>
+      <c r="AE51" t="n">
         <v>1931212.8</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AF51" t="n">
         <v>20600</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AG51" t="n">
         <v>18700</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AH51" t="n">
         <v>17100</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AI51" t="n">
         <v>11947</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AJ51" t="n">
         <v>5153</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AK51" t="n">
         <v>4600</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -5131,83 +6714,114 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>AE3007 A1</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>33710</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
         <v>2.28</v>
       </c>
-      <c r="G52" t="n">
+      <c r="L52" t="n">
         <v>2.28</v>
       </c>
-      <c r="H52" t="n">
+      <c r="M52" t="n">
         <v>29.87</v>
       </c>
-      <c r="I52" t="n">
+      <c r="N52" t="n">
         <v>20.04</v>
       </c>
-      <c r="J52" t="n">
+      <c r="O52" t="n">
         <v>6.75</v>
       </c>
-      <c r="K52" t="n">
+      <c r="P52" t="n">
         <v>51.18</v>
       </c>
-      <c r="L52" t="n">
+      <c r="Q52" t="n">
         <v>0.25</v>
       </c>
-      <c r="M52" t="n">
+      <c r="R52" t="n">
         <v>21.5</v>
       </c>
-      <c r="N52" t="n">
+      <c r="S52" t="n">
         <v>3.34</v>
       </c>
-      <c r="O52" t="n">
+      <c r="T52" t="n">
         <v>0.62</v>
       </c>
-      <c r="P52" t="n">
+      <c r="U52" t="n">
         <v>30.5</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="V52" t="n">
         <v>7.55</v>
       </c>
-      <c r="R52" t="n">
+      <c r="W52" t="n">
         <v>0.6</v>
       </c>
-      <c r="S52" t="n">
+      <c r="X52" t="n">
         <v>19.5</v>
       </c>
-      <c r="T52" t="n">
+      <c r="Y52" t="n">
         <v>872.292</v>
       </c>
-      <c r="U52" t="n">
+      <c r="Z52" t="n">
         <v>0.78</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AA52" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB52" t="n">
         <v>6396</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AC52" t="n">
+        <v>1150</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>2687604.48</v>
+      </c>
+      <c r="AE52" t="n">
         <v>2639324.16</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AF52" t="n">
         <v>22000</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AG52" t="n">
         <v>19300</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AH52" t="n">
         <v>17900</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AI52" t="n">
         <v>12114</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AJ52" t="n">
         <v>5786</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AK52" t="n">
         <v>4800</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -5224,83 +6838,114 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>AE3007 A1E</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>39670</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
         <v>2.28</v>
       </c>
-      <c r="G53" t="n">
+      <c r="L53" t="n">
         <v>2.28</v>
       </c>
-      <c r="H53" t="n">
+      <c r="M53" t="n">
         <v>29.87</v>
       </c>
-      <c r="I53" t="n">
+      <c r="N53" t="n">
         <v>21</v>
       </c>
-      <c r="J53" t="n">
+      <c r="O53" t="n">
         <v>6.75</v>
       </c>
-      <c r="K53" t="n">
+      <c r="P53" t="n">
         <v>51.18</v>
       </c>
-      <c r="L53" t="n">
+      <c r="Q53" t="n">
         <v>0.25</v>
       </c>
-      <c r="M53" t="n">
+      <c r="R53" t="n">
         <v>21.5</v>
       </c>
-      <c r="N53" t="n">
+      <c r="S53" t="n">
         <v>3.34</v>
       </c>
-      <c r="O53" t="n">
+      <c r="T53" t="n">
         <v>0.62</v>
       </c>
-      <c r="P53" t="n">
+      <c r="U53" t="n">
         <v>30.5</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="V53" t="n">
         <v>7.55</v>
       </c>
-      <c r="R53" t="n">
+      <c r="W53" t="n">
         <v>0.58</v>
       </c>
-      <c r="S53" t="n">
+      <c r="X53" t="n">
         <v>17</v>
       </c>
-      <c r="T53" t="n">
+      <c r="Y53" t="n">
         <v>872.292</v>
       </c>
-      <c r="U53" t="n">
+      <c r="Z53" t="n">
         <v>0.78</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AA53" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB53" t="n">
         <v>7438</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AC53" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3218688</v>
+      </c>
+      <c r="AE53" t="n">
         <v>3138220.8</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AF53" t="n">
         <v>24100</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AG53" t="n">
         <v>20000</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AH53" t="n">
         <v>18500</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AI53" t="n">
         <v>12591</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AJ53" t="n">
         <v>5909</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AK53" t="n">
         <v>5050</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -5315,83 +6960,116 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>CF34-8E5</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>64540.00000000001</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
         <v>3.35</v>
       </c>
-      <c r="G54" t="n">
+      <c r="L54" t="n">
         <v>3.01</v>
       </c>
-      <c r="H54" t="n">
+      <c r="M54" t="n">
         <v>29.9</v>
       </c>
-      <c r="I54" t="n">
+      <c r="N54" t="n">
         <v>26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="O54" t="n">
         <v>9.82</v>
       </c>
-      <c r="K54" t="n">
+      <c r="P54" t="n">
         <v>72.72</v>
       </c>
-      <c r="L54" t="n">
+      <c r="Q54" t="n">
         <v>0.285</v>
       </c>
-      <c r="M54" t="n">
+      <c r="R54" t="n">
         <v>22.5</v>
       </c>
-      <c r="N54" t="n">
+      <c r="S54" t="n">
         <v>5.53</v>
       </c>
-      <c r="O54" t="n">
+      <c r="T54" t="n">
         <v>0.315</v>
       </c>
-      <c r="P54" t="n">
+      <c r="U54" t="n">
         <v>34</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="V54" t="n">
         <v>10</v>
       </c>
-      <c r="R54" t="n">
+      <c r="W54" t="n">
         <v>0.37</v>
       </c>
-      <c r="S54" t="n">
+      <c r="X54" t="n">
         <v>28.5</v>
       </c>
-      <c r="T54" t="n">
+      <c r="Y54" t="n">
         <v>822.288</v>
       </c>
-      <c r="U54" t="n">
+      <c r="Z54" t="n">
         <v>0.82</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AA54" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB54" t="n">
         <v>11625</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AC54" t="n">
+        <v>1320</v>
+      </c>
+      <c r="AD54" t="n">
         <v>3218688</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AE54" t="n">
+        <v>3218688</v>
+      </c>
+      <c r="AF54" t="n">
         <v>38600</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AG54" t="n">
         <v>33300</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AH54" t="n">
         <v>30900</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AI54" t="n">
         <v>21160</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AJ54" t="n">
         <v>9740</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AK54" t="n">
         <v>7000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -5406,83 +7084,116 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>CF34-8E5</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>64540.00000000001</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
         <v>3.35</v>
       </c>
-      <c r="G55" t="n">
+      <c r="L55" t="n">
         <v>3.01</v>
       </c>
-      <c r="H55" t="n">
+      <c r="M55" t="n">
         <v>31.68</v>
       </c>
-      <c r="I55" t="n">
+      <c r="N55" t="n">
         <v>28.65</v>
       </c>
-      <c r="J55" t="n">
+      <c r="O55" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="K55" t="n">
+      <c r="P55" t="n">
         <v>72.72</v>
       </c>
-      <c r="L55" t="n">
+      <c r="Q55" t="n">
         <v>0.285</v>
       </c>
-      <c r="M55" t="n">
+      <c r="R55" t="n">
         <v>22.5</v>
       </c>
-      <c r="N55" t="n">
+      <c r="S55" t="n">
         <v>5.53</v>
       </c>
-      <c r="O55" t="n">
+      <c r="T55" t="n">
         <v>0.315</v>
       </c>
-      <c r="P55" t="n">
+      <c r="U55" t="n">
         <v>34</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="V55" t="n">
         <v>10</v>
       </c>
-      <c r="R55" t="n">
+      <c r="W55" t="n">
         <v>0.37</v>
       </c>
-      <c r="S55" t="n">
+      <c r="X55" t="n">
         <v>28.5</v>
       </c>
-      <c r="T55" t="n">
+      <c r="Y55" t="n">
         <v>822.288</v>
       </c>
-      <c r="U55" t="n">
+      <c r="Z55" t="n">
         <v>0.82</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AA55" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB55" t="n">
         <v>11625</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AC55" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AD55" t="n">
         <v>3057753.6</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AE55" t="n">
+        <v>3057753.6</v>
+      </c>
+      <c r="AF55" t="n">
         <v>38790</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AG55" t="n">
         <v>34000</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AH55" t="n">
         <v>31700</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AI55" t="n">
         <v>21500</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AJ55" t="n">
         <v>10200</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AK55" t="n">
         <v>7850</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>88</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -5497,83 +7208,116 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>CF34-10E7</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>90570</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
         <v>3.35</v>
       </c>
-      <c r="G56" t="n">
+      <c r="L56" t="n">
         <v>3.01</v>
       </c>
-      <c r="H56" t="n">
+      <c r="M56" t="n">
         <v>36.24</v>
       </c>
-      <c r="I56" t="n">
+      <c r="N56" t="n">
         <v>28.72</v>
       </c>
-      <c r="J56" t="n">
+      <c r="O56" t="n">
         <v>10.55</v>
       </c>
-      <c r="K56" t="n">
+      <c r="P56" t="n">
         <v>92.5</v>
       </c>
-      <c r="L56" t="n">
+      <c r="Q56" t="n">
         <v>0.27</v>
       </c>
-      <c r="M56" t="n">
+      <c r="R56" t="n">
         <v>25</v>
       </c>
-      <c r="N56" t="n">
+      <c r="S56" t="n">
         <v>5.47</v>
       </c>
-      <c r="O56" t="n">
+      <c r="T56" t="n">
         <v>0.305</v>
       </c>
-      <c r="P56" t="n">
+      <c r="U56" t="n">
         <v>37</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="V56" t="n">
         <v>12.08</v>
       </c>
-      <c r="R56" t="n">
+      <c r="W56" t="n">
         <v>0.26</v>
       </c>
-      <c r="S56" t="n">
+      <c r="X56" t="n">
         <v>32</v>
       </c>
-      <c r="T56" t="n">
+      <c r="Y56" t="n">
         <v>1013.044</v>
       </c>
-      <c r="U56" t="n">
+      <c r="Z56" t="n">
         <v>0.82</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AA56" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB56" t="n">
         <v>16029</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AC56" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3379622.4</v>
+      </c>
+      <c r="AE56" t="n">
         <v>3733678.08</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AF56" t="n">
         <v>51800</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AG56" t="n">
         <v>44000</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AH56" t="n">
         <v>40900</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AI56" t="n">
         <v>27900</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AJ56" t="n">
         <v>13000</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AK56" t="n">
         <v>9300</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>114</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="57">
@@ -5588,83 +7332,116 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>CF34-10E7</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>90570</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
         <v>3.35</v>
       </c>
-      <c r="G57" t="n">
+      <c r="L57" t="n">
         <v>3.01</v>
       </c>
-      <c r="H57" t="n">
+      <c r="M57" t="n">
         <v>38.67</v>
       </c>
-      <c r="I57" t="n">
+      <c r="N57" t="n">
         <v>28.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="O57" t="n">
         <v>10.57</v>
       </c>
-      <c r="K57" t="n">
+      <c r="P57" t="n">
         <v>92.5</v>
       </c>
-      <c r="L57" t="n">
+      <c r="Q57" t="n">
         <v>0.275</v>
       </c>
-      <c r="M57" t="n">
+      <c r="R57" t="n">
         <v>22.5</v>
       </c>
-      <c r="N57" t="n">
+      <c r="S57" t="n">
         <v>5.47</v>
       </c>
-      <c r="O57" t="n">
+      <c r="T57" t="n">
         <v>0.305</v>
       </c>
-      <c r="P57" t="n">
+      <c r="U57" t="n">
         <v>34.5</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="V57" t="n">
         <v>12.08</v>
       </c>
-      <c r="R57" t="n">
+      <c r="W57" t="n">
         <v>0.275</v>
       </c>
-      <c r="S57" t="n">
+      <c r="X57" t="n">
         <v>29.5</v>
       </c>
-      <c r="T57" t="n">
+      <c r="Y57" t="n">
         <v>1013.044</v>
       </c>
-      <c r="U57" t="n">
+      <c r="Z57" t="n">
         <v>0.82</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AA57" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB57" t="n">
         <v>16029</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AC57" t="n">
+        <v>1470</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3170407.68</v>
+      </c>
+      <c r="AE57" t="n">
         <v>3685397.76</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AF57" t="n">
         <v>52290</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AG57" t="n">
         <v>45800</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AH57" t="n">
         <v>42600</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AI57" t="n">
         <v>28700</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AJ57" t="n">
         <v>13900</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AK57" t="n">
         <v>9000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>124</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="58">
@@ -5681,79 +7458,108 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>331-3U-303G</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>3.25</v>
+      </c>
       <c r="H58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>12.85</v>
       </c>
-      <c r="I58" t="n">
+      <c r="N58" t="n">
         <v>14.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="O58" t="n">
         <v>5.08</v>
       </c>
-      <c r="K58" t="n">
+      <c r="P58" t="n">
         <v>25.78</v>
       </c>
-      <c r="L58" t="n">
+      <c r="Q58" t="n">
         <v>0.395</v>
       </c>
-      <c r="M58" t="n">
+      <c r="R58" t="n">
         <v>0.9</v>
       </c>
-      <c r="N58" t="n">
+      <c r="S58" t="n">
         <v>2.93</v>
       </c>
-      <c r="O58" t="n">
+      <c r="T58" t="n">
         <v>0.27</v>
       </c>
-      <c r="P58" t="n">
+      <c r="U58" t="n">
         <v>26</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="V58" t="n">
         <v>4.48</v>
       </c>
-      <c r="R58" t="n">
+      <c r="W58" t="n">
         <v>0.47</v>
       </c>
-      <c r="S58" t="n">
+      <c r="X58" t="n">
         <v>36.5</v>
       </c>
-      <c r="T58" t="n">
+      <c r="Y58" t="n">
         <v>703.76</v>
       </c>
-      <c r="U58" t="n">
+      <c r="Z58" t="n">
         <v>0.63</v>
       </c>
-      <c r="V58" t="n">
+      <c r="AA58" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB58" t="n">
         <v>2468</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="n">
         <v>3118908.672</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AE58" t="n">
+        <v>3118908.672</v>
+      </c>
+      <c r="AF58" t="n">
         <v>5670</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AG58" t="n">
         <v>5217</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AH58" t="n">
         <v>4535</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AI58" t="n">
         <v>3356</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AJ58" t="n">
         <v>1179</v>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>1,944.176</t>
-        </is>
+      <c r="AK58" t="n">
+        <v>1944.176</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -5770,77 +7576,108 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>331-3UW-303G</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>7.75</v>
+      </c>
       <c r="H59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>18.09</v>
       </c>
-      <c r="I59" t="n">
+      <c r="N59" t="n">
         <v>14.1</v>
       </c>
-      <c r="J59" t="n">
+      <c r="O59" t="n">
         <v>5.08</v>
       </c>
-      <c r="K59" t="n">
+      <c r="P59" t="n">
         <v>25.78</v>
       </c>
-      <c r="L59" t="n">
+      <c r="Q59" t="n">
         <v>0.395</v>
       </c>
-      <c r="M59" t="n">
+      <c r="R59" t="n">
         <v>0.9</v>
       </c>
-      <c r="N59" t="n">
+      <c r="S59" t="n">
         <v>2.93</v>
       </c>
-      <c r="O59" t="n">
+      <c r="T59" t="n">
         <v>0.27</v>
       </c>
-      <c r="P59" t="n">
+      <c r="U59" t="n">
         <v>26</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="V59" t="n">
         <v>4.48</v>
       </c>
-      <c r="R59" t="n">
+      <c r="W59" t="n">
         <v>0.47</v>
       </c>
-      <c r="S59" t="n">
+      <c r="X59" t="n">
         <v>36.5</v>
       </c>
-      <c r="T59" t="n">
+      <c r="Y59" t="n">
         <v>570.4160000000001</v>
       </c>
-      <c r="U59" t="n">
+      <c r="Z59" t="n">
         <v>0.5</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AA59" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB59" t="n">
         <v>2452</v>
       </c>
-      <c r="W59" t="n">
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="n">
         <v>140012.928</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AF59" t="n">
         <v>5670</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AG59" t="n">
         <v>5670</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AH59" t="n">
         <v>5670</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AI59" t="n">
         <v>3345</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AJ59" t="n">
         <v>2325</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AK59" t="n">
         <v>1778</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -5857,81 +7694,108 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>PW125B</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
         <v>2.8</v>
       </c>
-      <c r="G60" t="n">
+      <c r="L60" t="n">
         <v>2.7</v>
       </c>
-      <c r="H60" t="n">
+      <c r="M60" t="n">
         <v>25.25</v>
       </c>
-      <c r="I60" t="n">
+      <c r="N60" t="n">
         <v>29</v>
       </c>
-      <c r="J60" t="n">
+      <c r="O60" t="n">
         <v>8.32</v>
       </c>
-      <c r="K60" t="n">
+      <c r="P60" t="n">
         <v>70</v>
       </c>
-      <c r="L60" t="n">
+      <c r="Q60" t="n">
         <v>0.4</v>
       </c>
-      <c r="M60" t="n">
+      <c r="R60" t="n">
         <v>1.5</v>
       </c>
-      <c r="N60" t="n">
+      <c r="S60" t="n">
         <v>4.6</v>
       </c>
-      <c r="O60" t="n">
+      <c r="T60" t="n">
         <v>0.385</v>
       </c>
-      <c r="P60" t="n">
+      <c r="U60" t="n">
         <v>17</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="V60" t="n">
         <v>9.75</v>
       </c>
-      <c r="R60" t="n">
+      <c r="W60" t="n">
         <v>0.36</v>
       </c>
-      <c r="S60" t="n">
+      <c r="X60" t="n">
         <v>6</v>
       </c>
-      <c r="T60" t="n">
+      <c r="Y60" t="n">
         <v>564.86</v>
       </c>
-      <c r="U60" t="n">
+      <c r="Z60" t="n">
         <v>0.507</v>
       </c>
-      <c r="V60" t="n">
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="n">
         <v>5136</v>
       </c>
-      <c r="W60" t="n">
+      <c r="AC60" t="n">
+        <v>600</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1480596.48</v>
+      </c>
+      <c r="AE60" t="n">
         <v>2768071.68</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AF60" t="n">
         <v>20820</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AG60" t="n">
         <v>20030</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AH60" t="n">
         <v>18900</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AI60" t="n">
         <v>13400</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AJ60" t="n">
         <v>5500</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AK60" t="n">
         <v>3300</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>62</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -5948,83 +7812,114 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Tay 650-15</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>67170</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
         <v>3.3</v>
       </c>
-      <c r="G61" t="n">
+      <c r="L61" t="n">
         <v>3.3</v>
       </c>
-      <c r="H61" t="n">
+      <c r="M61" t="n">
         <v>35.53</v>
       </c>
-      <c r="I61" t="n">
+      <c r="N61" t="n">
         <v>28.08</v>
       </c>
-      <c r="J61" t="n">
+      <c r="O61" t="n">
         <v>8.42</v>
       </c>
-      <c r="K61" t="n">
+      <c r="P61" t="n">
         <v>93.5</v>
       </c>
-      <c r="L61" t="n">
+      <c r="Q61" t="n">
         <v>0.29</v>
       </c>
-      <c r="M61" t="n">
+      <c r="R61" t="n">
         <v>17.5</v>
       </c>
-      <c r="N61" t="n">
+      <c r="S61" t="n">
         <v>4.08</v>
       </c>
-      <c r="O61" t="n">
+      <c r="T61" t="n">
         <v>0.705</v>
       </c>
-      <c r="P61" t="n">
+      <c r="U61" t="n">
         <v>37.5</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="V61" t="n">
         <v>10.04</v>
       </c>
-      <c r="R61" t="n">
+      <c r="W61" t="n">
         <v>0.41</v>
       </c>
-      <c r="S61" t="n">
+      <c r="X61" t="n">
         <v>25.5</v>
       </c>
-      <c r="T61" t="n">
+      <c r="Y61" t="n">
         <v>855.624</v>
       </c>
-      <c r="U61" t="n">
+      <c r="Z61" t="n">
         <v>0.77</v>
       </c>
-      <c r="V61" t="n">
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="n">
         <v>13365</v>
       </c>
-      <c r="W61" t="n">
+      <c r="AC61" t="n">
+        <v>1370</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>2558856.96</v>
+      </c>
+      <c r="AE61" t="n">
         <v>2768071.68</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AF61" t="n">
         <v>45810</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AG61" t="n">
         <v>39915</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AH61" t="n">
         <v>36740</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AI61" t="n">
         <v>24747</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AJ61" t="n">
         <v>11993</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AK61" t="n">
         <v>9200</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>109</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -6041,83 +7936,118 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>GE CT7-9B</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>26400</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K62" t="n">
         <v>2.31</v>
       </c>
-      <c r="G62" t="n">
+      <c r="L62" t="n">
         <v>2.31</v>
       </c>
-      <c r="H62" t="n">
+      <c r="M62" t="n">
         <v>19.73</v>
       </c>
-      <c r="I62" t="n">
+      <c r="N62" t="n">
         <v>22.7</v>
       </c>
-      <c r="J62" t="n">
+      <c r="O62" t="n">
         <v>6.97</v>
       </c>
-      <c r="K62" t="n">
+      <c r="P62" t="n">
         <v>43.11</v>
       </c>
-      <c r="L62" t="n">
+      <c r="Q62" t="n">
         <v>0.365</v>
       </c>
-      <c r="M62" t="n">
+      <c r="R62" t="n">
         <v>4.5</v>
       </c>
-      <c r="N62" t="n">
+      <c r="S62" t="n">
         <v>3.74</v>
       </c>
-      <c r="O62" t="n">
+      <c r="T62" t="n">
         <v>0.38</v>
       </c>
-      <c r="P62" t="n">
+      <c r="U62" t="n">
         <v>32</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="V62" t="n">
         <v>9.24</v>
       </c>
-      <c r="R62" t="n">
+      <c r="W62" t="n">
         <v>0.4</v>
       </c>
-      <c r="S62" t="n">
+      <c r="X62" t="n">
         <v>5</v>
       </c>
-      <c r="T62" t="n">
+      <c r="Y62" t="n">
         <v>524.116</v>
       </c>
-      <c r="U62" t="n">
+      <c r="Z62" t="n">
         <v>0.47</v>
       </c>
-      <c r="V62" t="n">
+      <c r="AA62" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB62" t="n">
         <v>3220</v>
       </c>
-      <c r="W62" t="n">
+      <c r="AC62" t="n">
+        <v>330</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>756391.6800000001</v>
+      </c>
+      <c r="AE62" t="n">
         <v>1963399.68</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AF62" t="n">
         <v>13605</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AG62" t="n">
         <v>12930</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AH62" t="n">
         <v>12020</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AI62" t="n">
         <v>8620</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AJ62" t="n">
         <v>3400</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AK62" t="n">
         <v>2450</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -6134,78 +8064,107 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Turbofan</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>SaM146</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>71600</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>20.42</v>
+      </c>
       <c r="H63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>29.94</v>
       </c>
-      <c r="I63" t="n">
+      <c r="N63" t="n">
         <v>27.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="O63" t="n">
         <v>10.28</v>
       </c>
-      <c r="K63" t="n">
+      <c r="P63" t="n">
         <v>83.8</v>
       </c>
-      <c r="L63" t="n">
+      <c r="Q63" t="n">
         <v>0.255</v>
       </c>
-      <c r="M63" t="n">
+      <c r="R63" t="n">
         <v>25</v>
       </c>
-      <c r="N63" t="n">
+      <c r="S63" t="n">
         <v>5.47</v>
       </c>
-      <c r="O63" t="n">
+      <c r="T63" t="n">
         <v>0.305</v>
       </c>
-      <c r="P63" t="n">
+      <c r="U63" t="n">
         <v>33.5</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="V63" t="n">
         <v>10</v>
       </c>
-      <c r="R63" t="n">
+      <c r="W63" t="n">
         <v>0.27</v>
       </c>
-      <c r="S63" t="n">
+      <c r="X63" t="n">
         <v>30</v>
       </c>
-      <c r="T63" t="n">
+      <c r="Y63" t="n">
         <v>903.7760000000001</v>
       </c>
-      <c r="U63" t="n">
+      <c r="Z63" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="V63" t="n">
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="n">
         <v>15805</v>
       </c>
-      <c r="W63" t="n">
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>2647370.88</v>
+      </c>
+      <c r="AE63" t="n">
         <v>3048000</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AF63" t="n">
         <v>45880</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AG63" t="n">
         <v>41000</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AH63" t="n">
         <v>40000</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AI63" t="n">
         <v>25100</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AJ63" t="n">
         <v>12245</v>
       </c>
-      <c r="AC63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>108</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6221,77 +8180,108 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Turboprop</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>PT6A-34</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K64" t="n">
         <v>4.44</v>
       </c>
-      <c r="G64" t="n">
+      <c r="L64" t="n">
         <v>1.75</v>
       </c>
-      <c r="H64" t="n">
+      <c r="M64" t="n">
         <v>15.77</v>
       </c>
-      <c r="I64" t="n">
+      <c r="N64" t="n">
         <v>19.81</v>
       </c>
-      <c r="J64" t="n">
+      <c r="O64" t="n">
         <v>5.94</v>
       </c>
-      <c r="K64" t="n">
+      <c r="P64" t="n">
         <v>39.02</v>
       </c>
-      <c r="L64" t="n">
+      <c r="Q64" t="n">
         <v>1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P64" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>6.29</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U64" t="n">
+        <v>24</v>
+      </c>
+      <c r="V64" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
         <v>1</v>
       </c>
-      <c r="T64" t="n">
+      <c r="Y64" t="n">
         <v>346.324</v>
       </c>
-      <c r="U64" t="n">
+      <c r="Z64" t="n">
         <v>0.29</v>
       </c>
-      <c r="V64" t="n">
+      <c r="AA64" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB64" t="n">
         <v>1446</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="n">
         <v>1129759.488</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AF64" t="n">
         <v>5670</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AG64" t="n">
         <v>5579</v>
       </c>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="n">
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="n">
         <v>3377</v>
       </c>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="n">
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="n">
         <v>1030</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
